--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084FBD6-CF4C-41F5-95FB-A1362FAE6E2C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="7900"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,10 +96,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -198,11 +199,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,7 +217,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -293,21 +294,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -577,40 +578,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
@@ -633,7 +634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -658,7 +659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -683,7 +684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -708,7 +709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -734,7 +735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
@@ -759,7 +760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
@@ -784,7 +785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
@@ -809,7 +810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -834,7 +835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
@@ -859,7 +860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -884,7 +885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -909,7 +910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="12"/>
@@ -924,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="12"/>
@@ -939,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="12"/>
@@ -954,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="12"/>
@@ -969,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="12"/>
@@ -984,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="12"/>
@@ -999,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
@@ -1014,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
@@ -1029,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
@@ -1044,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
@@ -1059,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1074,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1089,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1104,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1119,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1134,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1149,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1164,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1179,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1194,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1209,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1224,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1239,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1254,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1269,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1284,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1299,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1314,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1327,13 +1328,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1342,7 +1343,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1351,7 +1352,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1360,7 +1361,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1369,7 +1370,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1378,7 +1379,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1387,7 +1388,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1396,7 +1397,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1405,7 +1406,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1414,7 +1415,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1423,7 +1424,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1432,7 +1433,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1441,7 +1442,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1450,7 +1451,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1459,7 +1460,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1468,7 +1469,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1477,7 +1478,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1486,7 +1487,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1495,7 +1496,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1504,7 +1505,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1513,7 +1514,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1522,7 +1523,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1531,7 +1532,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1540,7 +1541,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1549,7 +1550,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1558,7 +1559,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1567,7 +1568,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1576,7 +1577,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1585,7 +1586,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1594,7 +1595,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1603,7 +1604,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1612,7 +1613,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1621,7 +1622,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1630,7 +1631,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1639,7 +1640,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1648,7 +1649,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1657,7 +1658,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1666,7 +1667,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1675,7 +1676,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1684,7 +1685,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1693,7 +1694,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1702,7 +1703,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1711,7 +1712,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1720,7 +1721,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1729,7 +1730,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1738,7 +1739,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -1747,7 +1748,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1756,7 +1757,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1765,7 +1766,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1774,7 +1775,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1783,7 +1784,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1792,7 +1793,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1801,7 +1802,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1810,7 +1811,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1819,7 +1820,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1828,7 +1829,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1837,7 +1838,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1846,7 +1847,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1855,7 +1856,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1864,7 +1865,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1873,7 +1874,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1882,7 +1883,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1891,7 +1892,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1900,7 +1901,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1909,7 +1910,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1918,7 +1919,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1927,7 +1928,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1936,7 +1937,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1945,7 +1946,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1954,7 +1955,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1963,7 +1964,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1972,7 +1973,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -1981,7 +1982,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -1990,7 +1991,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -1999,7 +2000,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2008,7 +2009,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2017,7 +2018,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2026,7 +2027,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2035,7 +2036,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2044,7 +2045,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2053,7 +2054,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2062,7 +2063,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2071,7 +2072,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2080,7 +2081,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2089,7 +2090,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2098,7 +2099,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2107,7 +2108,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2116,7 +2117,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2125,7 +2126,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2134,7 +2135,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2143,7 +2144,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2152,7 +2153,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2161,7 +2162,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2170,7 +2171,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2179,7 +2180,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2188,7 +2189,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2197,7 +2198,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2206,7 +2207,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2215,7 +2216,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2224,7 +2225,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2233,7 +2234,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2242,7 +2243,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2251,7 +2252,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2260,7 +2261,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2269,7 +2270,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2278,7 +2279,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2287,7 +2288,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2296,7 +2297,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2305,7 +2306,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2314,7 +2315,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2323,7 +2324,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2332,7 +2333,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2341,7 +2342,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2350,7 +2351,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2359,7 +2360,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2368,7 +2369,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2377,7 +2378,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2386,7 +2387,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2395,7 +2396,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2404,7 +2405,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2413,7 +2414,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2422,7 +2423,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2431,7 +2432,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2440,7 +2441,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2449,7 +2450,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2458,7 +2459,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2467,7 +2468,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2476,7 +2477,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2485,7 +2486,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2494,7 +2495,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2503,7 +2504,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2512,7 +2513,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2521,7 +2522,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2530,7 +2531,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2539,7 +2540,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2548,7 +2549,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2557,7 +2558,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2566,7 +2567,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2575,7 +2576,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2584,7 +2585,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2593,7 +2594,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2602,7 +2603,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2611,7 +2612,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2620,7 +2621,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2629,7 +2630,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2638,7 +2639,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2647,7 +2648,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2656,7 +2657,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2665,7 +2666,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2674,7 +2675,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2683,7 +2684,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2692,7 +2693,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2701,7 +2702,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2710,7 +2711,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2719,7 +2720,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2728,7 +2729,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2737,7 +2738,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2746,7 +2747,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2755,7 +2756,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2764,7 +2765,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2773,7 +2774,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2782,7 +2783,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2791,7 +2792,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2800,7 +2801,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2809,7 +2810,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2818,7 +2819,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2827,7 +2828,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2836,7 +2837,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2845,7 +2846,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2854,7 +2855,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2863,7 +2864,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2872,7 +2873,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2881,7 +2882,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2890,7 +2891,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -2899,7 +2900,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -2908,7 +2909,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -2917,25 +2918,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084FBD6-CF4C-41F5-95FB-A1362FAE6E2C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="18270" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>GESAMT</t>
   </si>
@@ -92,14 +91,17 @@
   <si>
     <t>Zeiterfassung Software Engineering Praktikum (259035)</t>
   </si>
+  <si>
+    <t>Besprechung LVA Leiter Release I</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -199,11 +201,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,7 +219,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -294,21 +296,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -578,40 +580,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
@@ -634,7 +636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -659,7 +661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -684,7 +686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -709,7 +711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -735,7 +737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
@@ -760,7 +762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
@@ -785,7 +787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
@@ -810,7 +812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -835,7 +837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
@@ -860,7 +862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -885,7 +887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -910,37 +912,57 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12">
+        <v>43216</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.625</v>
+      </c>
       <c r="G18">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="12">
+        <v>43209</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="G19">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="12"/>
@@ -955,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="12"/>
@@ -970,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="12"/>
@@ -985,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="12"/>
@@ -1000,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
@@ -1015,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
@@ -1030,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
@@ -1045,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
@@ -1060,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1075,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1090,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1105,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1120,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1135,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1150,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1165,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1180,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1195,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1210,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1225,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1240,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1255,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1270,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1285,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1300,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1315,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1325,16 +1347,16 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1343,7 +1365,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1352,7 +1374,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1361,7 +1383,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1370,7 +1392,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1379,7 +1401,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1388,7 +1410,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1397,7 +1419,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1406,7 +1428,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1415,7 +1437,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1424,7 +1446,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1433,7 +1455,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1442,7 +1464,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1451,7 +1473,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1460,7 +1482,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1469,7 +1491,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1478,7 +1500,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1487,7 +1509,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1496,7 +1518,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1505,7 +1527,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1514,7 +1536,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1523,7 +1545,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1532,7 +1554,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1541,7 +1563,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1550,7 +1572,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1559,7 +1581,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1568,7 +1590,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1577,7 +1599,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1586,7 +1608,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1595,7 +1617,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1604,7 +1626,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1613,7 +1635,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1622,7 +1644,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1631,7 +1653,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1640,7 +1662,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1649,7 +1671,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1658,7 +1680,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1667,7 +1689,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1676,7 +1698,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1685,7 +1707,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1694,7 +1716,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1703,7 +1725,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1712,7 +1734,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1721,7 +1743,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1730,7 +1752,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1739,7 +1761,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -1748,7 +1770,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1757,7 +1779,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1766,7 +1788,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1775,7 +1797,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1784,7 +1806,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1793,7 +1815,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1802,7 +1824,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1811,7 +1833,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1820,7 +1842,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1829,7 +1851,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1838,7 +1860,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1847,7 +1869,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1856,7 +1878,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1865,7 +1887,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1874,7 +1896,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1883,7 +1905,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1892,7 +1914,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1901,7 +1923,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1910,7 +1932,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1919,7 +1941,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1928,7 +1950,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1937,7 +1959,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1946,7 +1968,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1955,7 +1977,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1964,7 +1986,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1973,7 +1995,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -1982,7 +2004,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -1991,7 +2013,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2000,7 +2022,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2009,7 +2031,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2018,7 +2040,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2027,7 +2049,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2036,7 +2058,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2045,7 +2067,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2054,7 +2076,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2063,7 +2085,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2072,7 +2094,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2081,7 +2103,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2090,7 +2112,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2099,7 +2121,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2108,7 +2130,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2117,7 +2139,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2126,7 +2148,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2135,7 +2157,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2144,7 +2166,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2153,7 +2175,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2162,7 +2184,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2171,7 +2193,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2180,7 +2202,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2189,7 +2211,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2198,7 +2220,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2207,7 +2229,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2216,7 +2238,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2225,7 +2247,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2234,7 +2256,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2243,7 +2265,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2252,7 +2274,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2261,7 +2283,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2270,7 +2292,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2279,7 +2301,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2288,7 +2310,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2297,7 +2319,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2306,7 +2328,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2315,7 +2337,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2324,7 +2346,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2333,7 +2355,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2342,7 +2364,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2351,7 +2373,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2360,7 +2382,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2369,7 +2391,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2378,7 +2400,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2387,7 +2409,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2396,7 +2418,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2405,7 +2427,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2414,7 +2436,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2423,7 +2445,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2432,7 +2454,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2441,7 +2463,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2450,7 +2472,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2459,7 +2481,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2468,7 +2490,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2477,7 +2499,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2486,7 +2508,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2495,7 +2517,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2504,7 +2526,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2513,7 +2535,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2522,7 +2544,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2531,7 +2553,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2540,7 +2562,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2549,7 +2571,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2558,7 +2580,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2567,7 +2589,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2576,7 +2598,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2585,7 +2607,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2594,7 +2616,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2603,7 +2625,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2612,7 +2634,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2621,7 +2643,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2630,7 +2652,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2639,7 +2661,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2648,7 +2670,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2657,7 +2679,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2666,7 +2688,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2675,7 +2697,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2684,7 +2706,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2693,7 +2715,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2702,7 +2724,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2711,7 +2733,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2720,7 +2742,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2729,7 +2751,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2738,7 +2760,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2747,7 +2769,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2756,7 +2778,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2765,7 +2787,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2774,7 +2796,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2783,7 +2805,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2792,7 +2814,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2801,7 +2823,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2810,7 +2832,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2819,7 +2841,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2828,7 +2850,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2837,7 +2859,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2846,7 +2868,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2855,7 +2877,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2864,7 +2886,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2873,7 +2895,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2882,7 +2904,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2891,7 +2913,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -2900,7 +2922,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -2909,7 +2931,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -2918,25 +2940,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8E581D-1F26-439A-A8C0-E4EF05CA8A24}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="18270" windowHeight="7910"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>GESAMT</t>
   </si>
@@ -94,14 +95,17 @@
   <si>
     <t>Besprechung LVA Leiter Release I</t>
   </si>
+  <si>
+    <t xml:space="preserve">Gruppen Meeting Organisatorisches </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -201,11 +205,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,7 +223,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -296,21 +300,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -580,40 +584,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
@@ -636,7 +640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -661,7 +665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -686,7 +690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -711,7 +715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -737,7 +741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
@@ -762,7 +766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
@@ -787,7 +791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
@@ -812,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -837,7 +841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
@@ -862,7 +866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -887,7 +891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -912,7 +916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>2</v>
       </c>
@@ -937,7 +941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -962,22 +966,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="12">
+        <v>43223</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G20">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="12"/>
@@ -992,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="12"/>
@@ -1007,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="12"/>
@@ -1022,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
@@ -1037,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
@@ -1052,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
@@ -1067,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
@@ -1082,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1097,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1112,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1127,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1142,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1157,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1172,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1187,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1202,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1217,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1232,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1247,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1262,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1277,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1292,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1307,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1322,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1337,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1347,16 +1361,16 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1365,7 +1379,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1374,7 +1388,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1383,7 +1397,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1392,7 +1406,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1401,7 +1415,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1410,7 +1424,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1419,7 +1433,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1428,7 +1442,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1437,7 +1451,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1446,7 +1460,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1455,7 +1469,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1464,7 +1478,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1473,7 +1487,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1482,7 +1496,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1491,7 +1505,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1500,7 +1514,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1509,7 +1523,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1518,7 +1532,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1527,7 +1541,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1536,7 +1550,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1545,7 +1559,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1554,7 +1568,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1563,7 +1577,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1572,7 +1586,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1581,7 +1595,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1590,7 +1604,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1599,7 +1613,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1608,7 +1622,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1617,7 +1631,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1626,7 +1640,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1635,7 +1649,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1644,7 +1658,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1653,7 +1667,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1662,7 +1676,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1671,7 +1685,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1680,7 +1694,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1689,7 +1703,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1698,7 +1712,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1707,7 +1721,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1716,7 +1730,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1725,7 +1739,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1734,7 +1748,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1743,7 +1757,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1752,7 +1766,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1761,7 +1775,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -1770,7 +1784,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1779,7 +1793,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1788,7 +1802,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1797,7 +1811,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1806,7 +1820,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1815,7 +1829,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1824,7 +1838,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1833,7 +1847,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1842,7 +1856,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1851,7 +1865,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1860,7 +1874,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1869,7 +1883,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1878,7 +1892,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1887,7 +1901,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1896,7 +1910,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1905,7 +1919,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1914,7 +1928,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1923,7 +1937,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1932,7 +1946,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1941,7 +1955,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1950,7 +1964,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1959,7 +1973,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1968,7 +1982,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1977,7 +1991,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1986,7 +2000,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1995,7 +2009,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2004,7 +2018,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2013,7 +2027,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2022,7 +2036,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2031,7 +2045,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2040,7 +2054,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2049,7 +2063,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2058,7 +2072,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2067,7 +2081,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2076,7 +2090,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2085,7 +2099,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2094,7 +2108,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2103,7 +2117,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2112,7 +2126,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2121,7 +2135,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2130,7 +2144,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2139,7 +2153,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2148,7 +2162,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2157,7 +2171,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2166,7 +2180,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2175,7 +2189,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2184,7 +2198,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2193,7 +2207,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2202,7 +2216,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2211,7 +2225,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2220,7 +2234,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2229,7 +2243,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2238,7 +2252,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2247,7 +2261,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2256,7 +2270,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2265,7 +2279,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2274,7 +2288,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2283,7 +2297,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2292,7 +2306,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2301,7 +2315,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2310,7 +2324,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2319,7 +2333,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2328,7 +2342,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2337,7 +2351,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2346,7 +2360,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2355,7 +2369,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2364,7 +2378,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2373,7 +2387,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2382,7 +2396,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2391,7 +2405,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2400,7 +2414,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2409,7 +2423,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2418,7 +2432,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2427,7 +2441,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2436,7 +2450,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2445,7 +2459,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2454,7 +2468,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2463,7 +2477,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2472,7 +2486,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2481,7 +2495,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2490,7 +2504,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2499,7 +2513,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2508,7 +2522,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2517,7 +2531,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2526,7 +2540,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2535,7 +2549,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2544,7 +2558,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2553,7 +2567,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2562,7 +2576,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2571,7 +2585,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2580,7 +2594,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2589,7 +2603,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2598,7 +2612,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2607,7 +2621,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2616,7 +2630,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2625,7 +2639,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2634,7 +2648,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2643,7 +2657,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2652,7 +2666,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2661,7 +2675,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2670,7 +2684,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2679,7 +2693,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2688,7 +2702,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2697,7 +2711,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2706,7 +2720,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2715,7 +2729,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2724,7 +2738,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2733,7 +2747,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2742,7 +2756,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2751,7 +2765,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2760,7 +2774,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2769,7 +2783,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2778,7 +2792,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2787,7 +2801,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2796,7 +2810,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2805,7 +2819,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2814,7 +2828,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2823,7 +2837,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2832,7 +2846,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2841,7 +2855,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2850,7 +2864,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2859,7 +2873,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2868,7 +2882,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2877,7 +2891,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2886,7 +2900,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2895,7 +2909,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2904,7 +2918,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2913,7 +2927,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -2922,7 +2936,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -2931,7 +2945,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -2940,25 +2954,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8E581D-1F26-439A-A8C0-E4EF05CA8A24}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="18270" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>GESAMT</t>
   </si>
@@ -98,14 +97,17 @@
   <si>
     <t xml:space="preserve">Gruppen Meeting Organisatorisches </t>
   </si>
+  <si>
+    <t>LVA - Präsenztermin, Vorstellung der Requirements des 2. Releases</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -205,11 +207,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,7 +225,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -300,21 +302,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -584,40 +586,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
@@ -640,7 +642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -665,7 +667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -690,7 +692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -715,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -741,7 +743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
@@ -766,7 +768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
@@ -791,7 +793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
@@ -816,7 +818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -841,7 +843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
@@ -866,7 +868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -891,7 +893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -916,7 +918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>2</v>
       </c>
@@ -941,7 +943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -966,7 +968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -991,22 +993,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="12">
+        <v>43223</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="G21">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H21">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="12"/>
@@ -1021,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="12"/>
@@ -1036,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
@@ -1051,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
@@ -1066,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
@@ -1081,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
@@ -1096,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1111,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1126,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1141,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1156,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1171,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1186,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1201,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1216,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1231,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1246,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1261,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1276,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1291,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1306,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1321,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1336,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1351,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1361,16 +1373,16 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1379,7 +1391,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1388,7 +1400,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1397,7 +1409,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1406,7 +1418,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1415,7 +1427,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1424,7 +1436,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1433,7 +1445,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1442,7 +1454,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1451,7 +1463,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1460,7 +1472,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1469,7 +1481,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1478,7 +1490,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1487,7 +1499,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1496,7 +1508,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1505,7 +1517,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1514,7 +1526,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1523,7 +1535,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1532,7 +1544,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1541,7 +1553,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1550,7 +1562,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1559,7 +1571,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1568,7 +1580,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1577,7 +1589,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1586,7 +1598,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1595,7 +1607,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1604,7 +1616,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1613,7 +1625,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1622,7 +1634,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1631,7 +1643,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1640,7 +1652,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1649,7 +1661,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1658,7 +1670,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1667,7 +1679,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1676,7 +1688,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1685,7 +1697,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1694,7 +1706,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1703,7 +1715,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1712,7 +1724,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1721,7 +1733,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1730,7 +1742,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1739,7 +1751,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1748,7 +1760,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1757,7 +1769,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1766,7 +1778,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1775,7 +1787,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -1784,7 +1796,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1793,7 +1805,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1802,7 +1814,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1811,7 +1823,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1820,7 +1832,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1829,7 +1841,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1838,7 +1850,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1847,7 +1859,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1856,7 +1868,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1865,7 +1877,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1874,7 +1886,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1883,7 +1895,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1892,7 +1904,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1901,7 +1913,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1910,7 +1922,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1919,7 +1931,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1928,7 +1940,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1937,7 +1949,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1946,7 +1958,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1955,7 +1967,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1964,7 +1976,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1973,7 +1985,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1982,7 +1994,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1991,7 +2003,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2000,7 +2012,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2009,7 +2021,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2018,7 +2030,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2027,7 +2039,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2036,7 +2048,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2045,7 +2057,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2054,7 +2066,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2063,7 +2075,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2072,7 +2084,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2081,7 +2093,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2090,7 +2102,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2099,7 +2111,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2108,7 +2120,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2117,7 +2129,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2126,7 +2138,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2135,7 +2147,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2144,7 +2156,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2153,7 +2165,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2162,7 +2174,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2171,7 +2183,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2180,7 +2192,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2189,7 +2201,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2198,7 +2210,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2207,7 +2219,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2216,7 +2228,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2225,7 +2237,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2234,7 +2246,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2243,7 +2255,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2252,7 +2264,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2261,7 +2273,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2270,7 +2282,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2279,7 +2291,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2288,7 +2300,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2297,7 +2309,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2306,7 +2318,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2315,7 +2327,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2324,7 +2336,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2333,7 +2345,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2342,7 +2354,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2351,7 +2363,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2360,7 +2372,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2369,7 +2381,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2378,7 +2390,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2387,7 +2399,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2396,7 +2408,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2405,7 +2417,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2414,7 +2426,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2423,7 +2435,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2432,7 +2444,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2441,7 +2453,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2450,7 +2462,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2459,7 +2471,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2468,7 +2480,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2477,7 +2489,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2486,7 +2498,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2495,7 +2507,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2504,7 +2516,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2513,7 +2525,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2522,7 +2534,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2531,7 +2543,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2540,7 +2552,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2549,7 +2561,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2558,7 +2570,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2567,7 +2579,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2576,7 +2588,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2585,7 +2597,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2594,7 +2606,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2603,7 +2615,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2612,7 +2624,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2621,7 +2633,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2630,7 +2642,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2639,7 +2651,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2648,7 +2660,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2657,7 +2669,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2666,7 +2678,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2675,7 +2687,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2684,7 +2696,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2693,7 +2705,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2702,7 +2714,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2711,7 +2723,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2720,7 +2732,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2729,7 +2741,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2738,7 +2750,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2747,7 +2759,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2756,7 +2768,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2765,7 +2777,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2774,7 +2786,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2783,7 +2795,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2792,7 +2804,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2801,7 +2813,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2810,7 +2822,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2819,7 +2831,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2828,7 +2840,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2837,7 +2849,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2846,7 +2858,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2855,7 +2867,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2864,7 +2876,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2873,7 +2885,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2882,7 +2894,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2891,7 +2903,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2900,7 +2912,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2909,7 +2921,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2918,7 +2930,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2927,7 +2939,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -2936,7 +2948,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -2945,7 +2957,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -2954,25 +2966,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB11F3B0-19F8-4B9A-A6FA-43962EA79233}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="18270" windowHeight="7910"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="18276" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>GESAMT</t>
   </si>
@@ -100,14 +101,17 @@
   <si>
     <t>LVA - Präsenztermin, Vorstellung der Requirements des 2. Releases</t>
   </si>
+  <si>
+    <t>Reviewmethoden recherchieren, Coderichtlinien</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -207,11 +211,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,7 +229,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -302,21 +306,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -586,40 +590,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
@@ -642,7 +646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -667,7 +671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -692,7 +696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -717,7 +721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -743,7 +747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
@@ -768,7 +772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
@@ -793,7 +797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
@@ -818,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -843,7 +847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
@@ -868,7 +872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -893,7 +897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -918,7 +922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>2</v>
       </c>
@@ -943,7 +947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -968,7 +972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -993,7 +997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1018,22 +1022,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="12">
+        <v>43225</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.75</v>
+      </c>
       <c r="G22">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="12"/>
@@ -1048,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
@@ -1063,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
@@ -1078,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
@@ -1093,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
@@ -1108,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1123,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1138,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1153,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1168,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1183,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1198,7 +1212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1213,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1228,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1243,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1258,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1273,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1288,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1303,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1318,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1333,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1348,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1363,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1373,16 +1387,16 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>45.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+        <v>50.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1391,7 +1405,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1400,7 +1414,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1409,7 +1423,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1418,7 +1432,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1427,7 +1441,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1436,7 +1450,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1445,7 +1459,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1454,7 +1468,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1463,7 +1477,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1472,7 +1486,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1481,7 +1495,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1490,7 +1504,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1499,7 +1513,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1508,7 +1522,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1517,7 +1531,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1526,7 +1540,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1535,7 +1549,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1544,7 +1558,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1553,7 +1567,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1562,7 +1576,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1571,7 +1585,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1580,7 +1594,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1589,7 +1603,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1598,7 +1612,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1607,7 +1621,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1616,7 +1630,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1625,7 +1639,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1634,7 +1648,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1643,7 +1657,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1652,7 +1666,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1661,7 +1675,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1670,7 +1684,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1679,7 +1693,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1688,7 +1702,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1697,7 +1711,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1706,7 +1720,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1715,7 +1729,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1724,7 +1738,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1733,7 +1747,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1742,7 +1756,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1751,7 +1765,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1760,7 +1774,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1769,7 +1783,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1778,7 +1792,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1787,7 +1801,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -1796,7 +1810,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1805,7 +1819,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1814,7 +1828,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1823,7 +1837,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1832,7 +1846,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1841,7 +1855,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1850,7 +1864,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1859,7 +1873,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1868,7 +1882,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1877,7 +1891,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1886,7 +1900,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1895,7 +1909,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1904,7 +1918,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1913,7 +1927,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1922,7 +1936,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1931,7 +1945,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1940,7 +1954,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1949,7 +1963,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1958,7 +1972,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1967,7 +1981,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1976,7 +1990,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1985,7 +1999,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1994,7 +2008,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2003,7 +2017,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2012,7 +2026,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2021,7 +2035,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2030,7 +2044,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2039,7 +2053,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2048,7 +2062,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2057,7 +2071,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2066,7 +2080,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2075,7 +2089,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2084,7 +2098,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2093,7 +2107,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2102,7 +2116,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2111,7 +2125,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2120,7 +2134,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2129,7 +2143,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2138,7 +2152,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2147,7 +2161,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2156,7 +2170,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2165,7 +2179,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2174,7 +2188,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2183,7 +2197,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2192,7 +2206,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2201,7 +2215,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2210,7 +2224,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2219,7 +2233,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2228,7 +2242,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2237,7 +2251,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2246,7 +2260,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2255,7 +2269,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2264,7 +2278,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2273,7 +2287,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2282,7 +2296,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2291,7 +2305,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2300,7 +2314,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2309,7 +2323,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2318,7 +2332,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2327,7 +2341,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2336,7 +2350,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2345,7 +2359,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2354,7 +2368,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2363,7 +2377,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2372,7 +2386,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2381,7 +2395,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2390,7 +2404,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2399,7 +2413,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2408,7 +2422,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2417,7 +2431,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2426,7 +2440,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2435,7 +2449,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2444,7 +2458,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2453,7 +2467,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2462,7 +2476,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2471,7 +2485,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2480,7 +2494,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2489,7 +2503,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2498,7 +2512,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2507,7 +2521,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2516,7 +2530,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2525,7 +2539,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2534,7 +2548,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2543,7 +2557,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2552,7 +2566,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2561,7 +2575,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2570,7 +2584,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2579,7 +2593,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2588,7 +2602,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2597,7 +2611,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2606,7 +2620,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2615,7 +2629,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2624,7 +2638,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2633,7 +2647,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2642,7 +2656,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2651,7 +2665,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2660,7 +2674,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2669,7 +2683,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2678,7 +2692,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2687,7 +2701,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2696,7 +2710,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2705,7 +2719,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2714,7 +2728,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2723,7 +2737,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2732,7 +2746,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2741,7 +2755,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2750,7 +2764,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2759,7 +2773,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2768,7 +2782,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2777,7 +2791,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2786,7 +2800,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2795,7 +2809,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2804,7 +2818,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2813,7 +2827,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2822,7 +2836,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2831,7 +2845,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2840,7 +2854,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2849,7 +2863,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2858,7 +2872,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2867,7 +2881,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2876,7 +2890,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2885,7 +2899,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2894,7 +2908,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2903,7 +2917,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2912,7 +2926,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2921,7 +2935,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2930,7 +2944,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2939,7 +2953,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -2948,7 +2962,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -2957,7 +2971,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -2966,25 +2980,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB11F3B0-19F8-4B9A-A6FA-43962EA79233}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="18276" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="18280" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>GESAMT</t>
   </si>
@@ -104,14 +103,20 @@
   <si>
     <t>Reviewmethoden recherchieren, Coderichtlinien</t>
   </si>
+  <si>
+    <t>Ausarbeitung Funktionen</t>
+  </si>
+  <si>
+    <t>Ausarbeitung der Funktion: Neue Personen erstellen, Zuweisung von Pers. zu einem Projekt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -211,11 +216,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,7 +234,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -264,8 +269,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -306,21 +311,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -590,40 +595,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
@@ -646,7 +651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -671,7 +676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -696,7 +701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -721,7 +726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -747,7 +752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
@@ -772,7 +777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
@@ -797,7 +802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
@@ -822,7 +827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -847,7 +852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
@@ -872,7 +877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -897,7 +902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -922,7 +927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>2</v>
       </c>
@@ -947,7 +952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -972,7 +977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -997,7 +1002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1022,7 +1027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1047,22 +1052,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="12">
+        <v>43236</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.625</v>
+      </c>
       <c r="G23">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
@@ -1077,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
@@ -1092,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
@@ -1107,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
@@ -1122,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1137,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1152,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1167,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1182,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1197,7 +1212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1212,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1227,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1242,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1257,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1272,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1287,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1302,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1317,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1332,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1347,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1362,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1377,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1387,16 +1402,16 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>50.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1405,7 +1420,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1414,7 +1429,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1423,7 +1438,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1432,7 +1447,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1441,7 +1456,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1450,7 +1465,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1459,7 +1474,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1468,7 +1483,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1477,7 +1492,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1486,7 +1501,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1495,7 +1510,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1504,7 +1519,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1513,7 +1528,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1522,7 +1537,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1531,7 +1546,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1540,7 +1555,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1549,7 +1564,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1558,7 +1573,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1567,7 +1582,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1576,7 +1591,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1585,7 +1600,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1594,7 +1609,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1603,7 +1618,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1612,7 +1627,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1621,7 +1636,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1630,7 +1645,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1639,7 +1654,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1648,7 +1663,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1657,7 +1672,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1666,7 +1681,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1675,7 +1690,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1684,7 +1699,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1693,7 +1708,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1702,7 +1717,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1711,7 +1726,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1720,7 +1735,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1729,7 +1744,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1738,7 +1753,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1747,7 +1762,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1756,7 +1771,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1765,7 +1780,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1774,7 +1789,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1783,7 +1798,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1792,7 +1807,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1801,7 +1816,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -1810,7 +1825,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1819,7 +1834,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1828,7 +1843,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1837,7 +1852,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1846,7 +1861,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1855,7 +1870,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1864,7 +1879,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1873,7 +1888,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1882,7 +1897,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1891,7 +1906,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1900,7 +1915,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1909,7 +1924,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1918,7 +1933,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1927,7 +1942,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1936,7 +1951,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1945,7 +1960,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1954,7 +1969,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1963,7 +1978,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1972,7 +1987,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1981,7 +1996,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1990,7 +2005,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1999,7 +2014,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2008,7 +2023,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2017,7 +2032,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2026,7 +2041,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2035,7 +2050,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2044,7 +2059,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2053,7 +2068,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2062,7 +2077,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2071,7 +2086,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2080,7 +2095,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2089,7 +2104,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2098,7 +2113,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2107,7 +2122,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2116,7 +2131,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2125,7 +2140,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2134,7 +2149,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2143,7 +2158,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2152,7 +2167,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2161,7 +2176,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2170,7 +2185,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2179,7 +2194,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2188,7 +2203,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2197,7 +2212,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2206,7 +2221,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2215,7 +2230,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2224,7 +2239,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2233,7 +2248,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2242,7 +2257,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2251,7 +2266,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2260,7 +2275,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2269,7 +2284,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2278,7 +2293,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2287,7 +2302,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2296,7 +2311,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2305,7 +2320,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2314,7 +2329,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2323,7 +2338,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2332,7 +2347,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2341,7 +2356,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2350,7 +2365,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2359,7 +2374,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2368,7 +2383,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2377,7 +2392,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2386,7 +2401,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2395,7 +2410,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2404,7 +2419,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2413,7 +2428,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2422,7 +2437,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2431,7 +2446,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2440,7 +2455,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2449,7 +2464,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2458,7 +2473,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2467,7 +2482,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2476,7 +2491,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2485,7 +2500,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2494,7 +2509,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2503,7 +2518,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2512,7 +2527,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2521,7 +2536,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2530,7 +2545,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2539,7 +2554,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2548,7 +2563,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2557,7 +2572,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2566,7 +2581,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2575,7 +2590,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2584,7 +2599,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2593,7 +2608,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2602,7 +2617,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2611,7 +2626,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2620,7 +2635,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2629,7 +2644,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2638,7 +2653,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2647,7 +2662,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2656,7 +2671,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2665,7 +2680,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2674,7 +2689,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2683,7 +2698,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2692,7 +2707,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2701,7 +2716,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2710,7 +2725,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2719,7 +2734,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2728,7 +2743,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2737,7 +2752,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2746,7 +2761,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2755,7 +2770,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2764,7 +2779,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2773,7 +2788,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2782,7 +2797,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2791,7 +2806,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2800,7 +2815,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2809,7 +2824,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2818,7 +2833,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2827,7 +2842,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2836,7 +2851,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2845,7 +2860,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2854,7 +2869,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2863,7 +2878,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2872,7 +2887,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2881,7 +2896,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2890,7 +2905,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2899,7 +2914,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2908,7 +2923,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2917,7 +2932,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2926,7 +2941,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2935,7 +2950,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2944,7 +2959,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2953,7 +2968,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -2962,7 +2977,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -2971,7 +2986,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -2980,25 +2995,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E689B15-B0B7-41F2-A797-0A1BC81A2F4E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="18280" windowHeight="7910"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="18285" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>GESAMT</t>
   </si>
@@ -113,10 +114,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -216,11 +217,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,7 +235,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -269,8 +270,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -311,21 +312,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -595,40 +596,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
@@ -651,7 +652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -676,7 +677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -701,7 +702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -726,7 +727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -752,7 +753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
@@ -777,7 +778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
@@ -802,7 +803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
@@ -827,7 +828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -852,7 +853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
@@ -877,7 +878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -902,7 +903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -927,7 +928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>2</v>
       </c>
@@ -952,7 +953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -977,7 +978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1052,7 +1053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1077,22 +1078,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12">
+        <v>43237</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.625</v>
+      </c>
       <c r="G24">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
@@ -1107,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
@@ -1122,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
@@ -1137,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1152,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1167,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1182,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1197,7 +1208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1212,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1227,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1242,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1257,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1272,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1287,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1302,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1317,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1332,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1347,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1362,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1377,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1392,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1402,16 +1413,16 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>55.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+        <v>59.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1420,7 +1431,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1429,7 +1440,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1438,7 +1449,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1447,7 +1458,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1456,7 +1467,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1465,7 +1476,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1474,7 +1485,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1483,7 +1494,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1492,7 +1503,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1501,7 +1512,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1510,7 +1521,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1519,7 +1530,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1528,7 +1539,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1537,7 +1548,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1546,7 +1557,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1555,7 +1566,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1564,7 +1575,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1573,7 +1584,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1582,7 +1593,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1591,7 +1602,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1600,7 +1611,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1609,7 +1620,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1618,7 +1629,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1627,7 +1638,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1636,7 +1647,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1645,7 +1656,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1654,7 +1665,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1663,7 +1674,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1672,7 +1683,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1681,7 +1692,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1690,7 +1701,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1699,7 +1710,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1708,7 +1719,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1717,7 +1728,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1726,7 +1737,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1735,7 +1746,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1744,7 +1755,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1753,7 +1764,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1762,7 +1773,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1771,7 +1782,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1780,7 +1791,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1789,7 +1800,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1798,7 +1809,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1807,7 +1818,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1816,7 +1827,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -1825,7 +1836,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1834,7 +1845,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1843,7 +1854,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1852,7 +1863,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1861,7 +1872,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1870,7 +1881,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1879,7 +1890,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1888,7 +1899,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1897,7 +1908,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1906,7 +1917,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1915,7 +1926,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1924,7 +1935,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1933,7 +1944,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1942,7 +1953,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1951,7 +1962,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1960,7 +1971,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1969,7 +1980,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1978,7 +1989,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1987,7 +1998,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1996,7 +2007,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2005,7 +2016,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2014,7 +2025,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2023,7 +2034,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2032,7 +2043,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2041,7 +2052,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2050,7 +2061,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2059,7 +2070,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2068,7 +2079,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2077,7 +2088,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2086,7 +2097,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2095,7 +2106,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2104,7 +2115,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2113,7 +2124,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2122,7 +2133,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2131,7 +2142,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2140,7 +2151,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2149,7 +2160,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2158,7 +2169,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2167,7 +2178,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2176,7 +2187,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2185,7 +2196,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2194,7 +2205,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2203,7 +2214,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2212,7 +2223,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2221,7 +2232,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2230,7 +2241,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2239,7 +2250,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2248,7 +2259,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2257,7 +2268,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2266,7 +2277,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2275,7 +2286,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2284,7 +2295,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2293,7 +2304,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2302,7 +2313,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2311,7 +2322,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2320,7 +2331,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2329,7 +2340,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2338,7 +2349,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2347,7 +2358,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2356,7 +2367,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2365,7 +2376,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2374,7 +2385,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2383,7 +2394,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2392,7 +2403,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2401,7 +2412,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2410,7 +2421,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2419,7 +2430,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2428,7 +2439,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2437,7 +2448,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2446,7 +2457,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2455,7 +2466,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2464,7 +2475,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2473,7 +2484,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2482,7 +2493,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2491,7 +2502,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2500,7 +2511,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2509,7 +2520,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2518,7 +2529,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2527,7 +2538,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2536,7 +2547,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2545,7 +2556,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2554,7 +2565,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2563,7 +2574,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2572,7 +2583,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2581,7 +2592,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2590,7 +2601,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2599,7 +2610,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2608,7 +2619,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2617,7 +2628,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2626,7 +2637,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2635,7 +2646,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2644,7 +2655,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2653,7 +2664,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2662,7 +2673,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2671,7 +2682,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2680,7 +2691,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2689,7 +2700,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2698,7 +2709,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2707,7 +2718,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2716,7 +2727,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2725,7 +2736,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2734,7 +2745,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2743,7 +2754,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2752,7 +2763,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2761,7 +2772,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2770,7 +2781,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2779,7 +2790,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2788,7 +2799,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2797,7 +2808,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2806,7 +2817,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2815,7 +2826,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2824,7 +2835,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2833,7 +2844,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2842,7 +2853,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2851,7 +2862,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2860,7 +2871,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2869,7 +2880,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2878,7 +2889,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2887,7 +2898,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2896,7 +2907,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2905,7 +2916,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2914,7 +2925,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2923,7 +2934,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2932,7 +2943,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2941,7 +2952,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2950,7 +2961,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2959,7 +2970,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2968,7 +2979,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -2977,7 +2988,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -2986,7 +2997,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -2995,25 +3006,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E689B15-B0B7-41F2-A797-0A1BC81A2F4E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3572EBCD-F9FB-4F01-B746-6DA1115839A0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="18285" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="18288" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>GESAMT</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Ausarbeitung der Funktion: Neue Personen erstellen, Zuweisung von Pers. zu einem Projekt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausarbeitung der Funktion: Zuweisung von Pers. zu Projekt, Aktivitäten Erstellung </t>
+  </si>
+  <si>
+    <t>Ausarbeitung der Funktion: Aktivitäten Erstellung</t>
   </si>
 </sst>
 </file>
@@ -600,36 +606,36 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
@@ -652,7 +658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -677,7 +683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -702,7 +708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -727,7 +733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -753,7 +759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
@@ -778,7 +784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
@@ -803,7 +809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
@@ -828,7 +834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -853,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
@@ -878,7 +884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -903,7 +909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -928,7 +934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>2</v>
       </c>
@@ -953,7 +959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -978,7 +984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +1009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
         <v>2</v>
       </c>
@@ -1103,37 +1109,57 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="12">
+        <v>43239</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="G25">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H25">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="12">
+        <v>43240</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0.75</v>
+      </c>
       <c r="G26">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H26">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
@@ -1148,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1163,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1178,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1193,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1208,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1223,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1238,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1253,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1268,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1283,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1298,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1313,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1328,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1343,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1358,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1373,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1388,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1403,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1413,16 +1439,16 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>59.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1431,7 +1457,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1440,7 +1466,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1449,7 +1475,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1458,7 +1484,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1467,7 +1493,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1476,7 +1502,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1485,7 +1511,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1494,7 +1520,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1503,7 +1529,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1512,7 +1538,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1521,7 +1547,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1530,7 +1556,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1539,7 +1565,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1548,7 +1574,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1557,7 +1583,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1566,7 +1592,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1575,7 +1601,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1584,7 +1610,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1593,7 +1619,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1602,7 +1628,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1611,7 +1637,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1620,7 +1646,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1629,7 +1655,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1638,7 +1664,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1647,7 +1673,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1656,7 +1682,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1665,7 +1691,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1674,7 +1700,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1683,7 +1709,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1692,7 +1718,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1701,7 +1727,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1710,7 +1736,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1719,7 +1745,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1728,7 +1754,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1737,7 +1763,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1746,7 +1772,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1755,7 +1781,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1764,7 +1790,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1773,7 +1799,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1782,7 +1808,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1791,7 +1817,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1800,7 +1826,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1809,7 +1835,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1818,7 +1844,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1827,7 +1853,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -1836,7 +1862,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1845,7 +1871,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1854,7 +1880,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1863,7 +1889,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1872,7 +1898,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1881,7 +1907,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1890,7 +1916,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1899,7 +1925,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1908,7 +1934,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1917,7 +1943,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1926,7 +1952,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1935,7 +1961,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1944,7 +1970,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1953,7 +1979,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1962,7 +1988,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1971,7 +1997,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1980,7 +2006,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1989,7 +2015,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1998,7 +2024,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2007,7 +2033,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2016,7 +2042,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2025,7 +2051,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2034,7 +2060,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2043,7 +2069,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2052,7 +2078,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2061,7 +2087,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2070,7 +2096,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2079,7 +2105,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2088,7 +2114,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2097,7 +2123,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2106,7 +2132,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2115,7 +2141,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2124,7 +2150,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2133,7 +2159,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2142,7 +2168,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2151,7 +2177,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2160,7 +2186,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2169,7 +2195,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2178,7 +2204,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2187,7 +2213,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2196,7 +2222,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2205,7 +2231,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2214,7 +2240,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2223,7 +2249,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2232,7 +2258,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2241,7 +2267,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2250,7 +2276,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2259,7 +2285,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2268,7 +2294,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2277,7 +2303,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2286,7 +2312,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2295,7 +2321,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2304,7 +2330,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2313,7 +2339,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2322,7 +2348,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2331,7 +2357,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2340,7 +2366,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2349,7 +2375,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2358,7 +2384,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2367,7 +2393,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2376,7 +2402,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2385,7 +2411,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2394,7 +2420,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2403,7 +2429,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2412,7 +2438,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2421,7 +2447,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2430,7 +2456,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2439,7 +2465,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2448,7 +2474,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2457,7 +2483,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2466,7 +2492,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2475,7 +2501,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2484,7 +2510,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2493,7 +2519,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2502,7 +2528,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2511,7 +2537,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2520,7 +2546,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2529,7 +2555,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2538,7 +2564,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2547,7 +2573,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2556,7 +2582,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2565,7 +2591,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2574,7 +2600,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2583,7 +2609,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2592,7 +2618,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2601,7 +2627,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2610,7 +2636,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2619,7 +2645,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2628,7 +2654,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2637,7 +2663,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2646,7 +2672,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2655,7 +2681,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2664,7 +2690,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2673,7 +2699,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2682,7 +2708,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2691,7 +2717,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2700,7 +2726,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2709,7 +2735,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2718,7 +2744,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2727,7 +2753,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2736,7 +2762,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2745,7 +2771,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2754,7 +2780,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2763,7 +2789,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2772,7 +2798,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2781,7 +2807,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2790,7 +2816,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2799,7 +2825,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2808,7 +2834,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2817,7 +2843,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2826,7 +2852,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2835,7 +2861,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2844,7 +2870,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2853,7 +2879,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2862,7 +2888,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2871,7 +2897,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2880,7 +2906,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2889,7 +2915,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2898,7 +2924,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2907,7 +2933,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2916,7 +2942,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2925,7 +2951,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2934,7 +2960,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2943,7 +2969,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2952,7 +2978,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2961,7 +2987,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2970,7 +2996,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2979,7 +3005,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -2988,7 +3014,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -2997,7 +3023,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -3006,25 +3032,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3572EBCD-F9FB-4F01-B746-6DA1115839A0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="18288" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="18290" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>GESAMT</t>
   </si>
@@ -116,14 +115,17 @@
   <si>
     <t>Ausarbeitung der Funktion: Aktivitäten Erstellung</t>
   </si>
+  <si>
+    <t>Ausarbeitung der Funktion: Zuweisung von Personen zu einer Aufgabe bzw. Aktivität</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -223,11 +225,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,7 +243,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -276,8 +278,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -318,21 +320,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -602,40 +604,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
@@ -658,7 +660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -683,7 +685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -708,7 +710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -733,7 +735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -759,7 +761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
@@ -784,7 +786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
@@ -809,7 +811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
@@ -834,7 +836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -859,7 +861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
@@ -884,7 +886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -909,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -934,7 +936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>2</v>
       </c>
@@ -959,7 +961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -984,7 +986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1009,7 +1011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1034,7 +1036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1059,7 +1061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1084,7 +1086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
         <v>2</v>
       </c>
@@ -1109,7 +1111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="13" t="s">
         <v>26</v>
       </c>
@@ -1134,7 +1136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
         <v>26</v>
       </c>
@@ -1159,22 +1161,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="12">
+        <v>43241</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G27">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1189,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1204,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1219,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1234,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1249,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1264,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1279,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1294,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1309,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1324,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1339,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1354,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1369,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1384,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1399,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1414,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1429,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1439,16 +1451,16 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>74.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>79.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1457,7 +1469,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1466,7 +1478,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1475,7 +1487,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1484,7 +1496,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1493,7 +1505,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1502,7 +1514,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1511,7 +1523,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1520,7 +1532,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1529,7 +1541,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1538,7 +1550,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1547,7 +1559,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1556,7 +1568,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1565,7 +1577,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1574,7 +1586,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1583,7 +1595,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1592,7 +1604,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1601,7 +1613,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1610,7 +1622,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1619,7 +1631,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1628,7 +1640,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1637,7 +1649,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1646,7 +1658,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1655,7 +1667,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1664,7 +1676,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1673,7 +1685,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1682,7 +1694,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1691,7 +1703,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1700,7 +1712,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1709,7 +1721,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1718,7 +1730,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1727,7 +1739,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1736,7 +1748,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1745,7 +1757,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1754,7 +1766,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1763,7 +1775,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1772,7 +1784,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1781,7 +1793,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1790,7 +1802,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1799,7 +1811,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1808,7 +1820,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1817,7 +1829,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1826,7 +1838,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1835,7 +1847,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1844,7 +1856,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1853,7 +1865,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -1862,7 +1874,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1871,7 +1883,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1880,7 +1892,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1889,7 +1901,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1898,7 +1910,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1907,7 +1919,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1916,7 +1928,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1925,7 +1937,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1934,7 +1946,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1943,7 +1955,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1952,7 +1964,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1961,7 +1973,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1970,7 +1982,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1979,7 +1991,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1988,7 +2000,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1997,7 +2009,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2006,7 +2018,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2015,7 +2027,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2024,7 +2036,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2033,7 +2045,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2042,7 +2054,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2051,7 +2063,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2060,7 +2072,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2069,7 +2081,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2078,7 +2090,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2087,7 +2099,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2096,7 +2108,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2105,7 +2117,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2114,7 +2126,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2123,7 +2135,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2132,7 +2144,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2141,7 +2153,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2150,7 +2162,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2159,7 +2171,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2168,7 +2180,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2177,7 +2189,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2186,7 +2198,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2195,7 +2207,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2204,7 +2216,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2213,7 +2225,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2222,7 +2234,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2231,7 +2243,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2240,7 +2252,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2249,7 +2261,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2258,7 +2270,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2267,7 +2279,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2276,7 +2288,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2285,7 +2297,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2294,7 +2306,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2303,7 +2315,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2312,7 +2324,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2321,7 +2333,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2330,7 +2342,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2339,7 +2351,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2348,7 +2360,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2357,7 +2369,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2366,7 +2378,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2375,7 +2387,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2384,7 +2396,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2393,7 +2405,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2402,7 +2414,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2411,7 +2423,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2420,7 +2432,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2429,7 +2441,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2438,7 +2450,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2447,7 +2459,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2456,7 +2468,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2465,7 +2477,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2474,7 +2486,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2483,7 +2495,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2492,7 +2504,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2501,7 +2513,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2510,7 +2522,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2519,7 +2531,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2528,7 +2540,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2537,7 +2549,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2546,7 +2558,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2555,7 +2567,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2564,7 +2576,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2573,7 +2585,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2582,7 +2594,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2591,7 +2603,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2600,7 +2612,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2609,7 +2621,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2618,7 +2630,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2627,7 +2639,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2636,7 +2648,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2645,7 +2657,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2654,7 +2666,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2663,7 +2675,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2672,7 +2684,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2681,7 +2693,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2690,7 +2702,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2699,7 +2711,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2708,7 +2720,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2717,7 +2729,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2726,7 +2738,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2735,7 +2747,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2744,7 +2756,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2753,7 +2765,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2762,7 +2774,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2771,7 +2783,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2780,7 +2792,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2789,7 +2801,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2798,7 +2810,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2807,7 +2819,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2816,7 +2828,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2825,7 +2837,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2834,7 +2846,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2843,7 +2855,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2852,7 +2864,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2861,7 +2873,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2870,7 +2882,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2879,7 +2891,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2888,7 +2900,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2897,7 +2909,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2906,7 +2918,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2915,7 +2927,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2924,7 +2936,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2933,7 +2945,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2942,7 +2954,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2951,7 +2963,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2960,7 +2972,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2969,7 +2981,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2978,7 +2990,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2987,7 +2999,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2996,7 +3008,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3005,7 +3017,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -3014,7 +3026,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -3023,7 +3035,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -3032,25 +3044,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>GESAMT</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Ausarbeitung der Funktion: Zuweisung von Personen zu einer Aufgabe bzw. Aktivität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausarbeitung der Funktion: Zeiterfassung, Coderichtlinien </t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1187,18 +1190,28 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="B28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="12">
+        <v>43242</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="G28">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H28">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
@@ -1451,7 +1464,7 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>79.25</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221D4208-6567-4158-B443-F25251833A08}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="18290" windowHeight="7910"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="18285" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>GESAMT</t>
   </si>
@@ -120,15 +121,18 @@
   </si>
   <si>
     <t xml:space="preserve">Ausarbeitung der Funktion: Zeiterfassung, Coderichtlinien </t>
+  </si>
+  <si>
+    <t>Gruppen Meeting Fehlerbehebung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -228,11 +232,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,7 +250,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -281,8 +285,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -323,21 +327,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -607,40 +611,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
@@ -663,7 +667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -688,7 +692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -713,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -738,7 +742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -764,7 +768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
@@ -789,7 +793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
@@ -814,7 +818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
@@ -839,7 +843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -864,7 +868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
@@ -889,7 +893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -914,7 +918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -939,7 +943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>2</v>
       </c>
@@ -964,7 +968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -989,7 +993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +1018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1039,7 +1043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1064,7 +1068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1089,7 +1093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>2</v>
       </c>
@@ -1114,7 +1118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>26</v>
       </c>
@@ -1139,7 +1143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>26</v>
       </c>
@@ -1164,7 +1168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>26</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>26</v>
       </c>
@@ -1214,22 +1218,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="12">
+        <v>43243</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="G29">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H29">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1244,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1259,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1274,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1289,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1304,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1319,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1334,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1349,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1364,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1379,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1394,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1409,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1424,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1439,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1454,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1464,16 +1478,16 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>86.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1482,7 +1496,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1491,7 +1505,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1500,7 +1514,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1509,7 +1523,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1518,7 +1532,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1527,7 +1541,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1536,7 +1550,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1545,7 +1559,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1554,7 +1568,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1563,7 +1577,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1572,7 +1586,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1581,7 +1595,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1590,7 +1604,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1599,7 +1613,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1608,7 +1622,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1617,7 +1631,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1626,7 +1640,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1635,7 +1649,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1644,7 +1658,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1653,7 +1667,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1662,7 +1676,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1671,7 +1685,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1680,7 +1694,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1689,7 +1703,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1698,7 +1712,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1707,7 +1721,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1716,7 +1730,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1725,7 +1739,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1734,7 +1748,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1743,7 +1757,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1752,7 +1766,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1761,7 +1775,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1770,7 +1784,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1779,7 +1793,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1788,7 +1802,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1797,7 +1811,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1806,7 +1820,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1815,7 +1829,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1824,7 +1838,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1833,7 +1847,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1842,7 +1856,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1851,7 +1865,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1860,7 +1874,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1869,7 +1883,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1878,7 +1892,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -1887,7 +1901,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1896,7 +1910,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1905,7 +1919,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1914,7 +1928,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1923,7 +1937,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1932,7 +1946,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1941,7 +1955,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1950,7 +1964,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1959,7 +1973,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1968,7 +1982,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1977,7 +1991,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1986,7 +2000,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1995,7 +2009,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2004,7 +2018,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2013,7 +2027,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2022,7 +2036,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2031,7 +2045,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2040,7 +2054,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2049,7 +2063,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2058,7 +2072,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2067,7 +2081,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2076,7 +2090,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2085,7 +2099,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2094,7 +2108,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2103,7 +2117,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2112,7 +2126,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2121,7 +2135,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2130,7 +2144,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2139,7 +2153,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2148,7 +2162,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2157,7 +2171,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2166,7 +2180,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2175,7 +2189,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2184,7 +2198,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2193,7 +2207,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2202,7 +2216,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2211,7 +2225,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2220,7 +2234,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2229,7 +2243,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2238,7 +2252,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2247,7 +2261,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2256,7 +2270,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2265,7 +2279,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2274,7 +2288,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2283,7 +2297,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2292,7 +2306,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2301,7 +2315,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2310,7 +2324,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2319,7 +2333,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2328,7 +2342,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2337,7 +2351,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2346,7 +2360,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2355,7 +2369,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2364,7 +2378,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2373,7 +2387,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2382,7 +2396,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2391,7 +2405,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2400,7 +2414,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2409,7 +2423,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2418,7 +2432,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2427,7 +2441,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2436,7 +2450,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2445,7 +2459,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2454,7 +2468,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2463,7 +2477,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2472,7 +2486,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2481,7 +2495,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2490,7 +2504,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2499,7 +2513,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2508,7 +2522,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2517,7 +2531,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2526,7 +2540,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2535,7 +2549,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2544,7 +2558,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2553,7 +2567,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2562,7 +2576,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2571,7 +2585,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2580,7 +2594,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2589,7 +2603,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2598,7 +2612,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2607,7 +2621,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2616,7 +2630,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2625,7 +2639,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2634,7 +2648,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2643,7 +2657,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2652,7 +2666,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2661,7 +2675,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2670,7 +2684,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2679,7 +2693,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2688,7 +2702,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2697,7 +2711,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2706,7 +2720,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2715,7 +2729,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2724,7 +2738,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2733,7 +2747,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2742,7 +2756,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2751,7 +2765,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2760,7 +2774,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2769,7 +2783,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2778,7 +2792,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2787,7 +2801,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2796,7 +2810,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2805,7 +2819,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2814,7 +2828,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2823,7 +2837,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2832,7 +2846,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2841,7 +2855,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2850,7 +2864,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2859,7 +2873,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2868,7 +2882,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2877,7 +2891,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2886,7 +2900,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2895,7 +2909,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2904,7 +2918,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2913,7 +2927,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2922,7 +2936,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2931,7 +2945,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2940,7 +2954,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2949,7 +2963,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2958,7 +2972,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2967,7 +2981,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2976,7 +2990,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2985,7 +2999,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2994,7 +3008,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3003,7 +3017,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3012,7 +3026,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3021,7 +3035,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3030,7 +3044,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -3039,7 +3053,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -3048,7 +3062,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -3057,25 +3071,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221D4208-6567-4158-B443-F25251833A08}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="18285" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="18285" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>GESAMT</t>
   </si>
@@ -124,15 +123,18 @@
   </si>
   <si>
     <t>Gruppen Meeting Fehlerbehebung</t>
+  </si>
+  <si>
+    <t>Vorbereitung Präsentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -232,11 +234,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,7 +252,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -327,21 +329,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -611,11 +613,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,18 +1246,28 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="B30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="12">
+        <v>43244</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G30">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H30">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1478,7 +1490,7 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>90.75</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6E33A2-264A-4D70-96E7-2DB17E3DB2B7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="18285" windowHeight="7905"/>
+    <workbookView xWindow="4656" yWindow="0" windowWidth="18288" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>GESAMT</t>
   </si>
@@ -126,15 +127,21 @@
   </si>
   <si>
     <t>Vorbereitung Präsentation</t>
+  </si>
+  <si>
+    <t>Code-Review</t>
+  </si>
+  <si>
+    <t>Code-Review vom kompletten Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -234,11 +241,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,7 +259,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -329,21 +336,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -613,40 +620,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
@@ -669,7 +676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -694,7 +701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -719,7 +726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -744,7 +751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -770,7 +777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
@@ -795,7 +802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
@@ -820,7 +827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
@@ -845,7 +852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -870,7 +877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
@@ -895,7 +902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -920,7 +927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -945,7 +952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>2</v>
       </c>
@@ -970,7 +977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -995,7 +1002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1020,7 +1027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1045,7 +1052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1095,7 +1102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
         <v>2</v>
       </c>
@@ -1120,7 +1127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
         <v>26</v>
       </c>
@@ -1145,7 +1152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>26</v>
       </c>
@@ -1170,7 +1177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
         <v>26</v>
       </c>
@@ -1195,7 +1202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
         <v>26</v>
       </c>
@@ -1220,7 +1227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>2</v>
       </c>
@@ -1245,7 +1252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
         <v>2</v>
       </c>
@@ -1270,22 +1277,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="12">
+        <v>43243</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G31">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1300,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1315,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1330,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1345,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1360,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1375,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1390,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1405,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1420,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1435,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1450,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1465,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1480,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1490,16 +1507,16 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>92.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1508,7 +1525,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1517,7 +1534,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1526,7 +1543,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1535,7 +1552,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1544,7 +1561,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1553,7 +1570,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1562,7 +1579,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1571,7 +1588,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1580,7 +1597,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1589,7 +1606,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1598,7 +1615,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1607,7 +1624,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1616,7 +1633,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1625,7 +1642,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1634,7 +1651,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1643,7 +1660,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1652,7 +1669,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1661,7 +1678,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1670,7 +1687,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1679,7 +1696,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1688,7 +1705,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1697,7 +1714,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1706,7 +1723,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1715,7 +1732,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1724,7 +1741,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1733,7 +1750,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1742,7 +1759,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1751,7 +1768,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1760,7 +1777,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1769,7 +1786,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1778,7 +1795,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1787,7 +1804,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1796,7 +1813,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1805,7 +1822,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1814,7 +1831,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1823,7 +1840,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1832,7 +1849,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1841,7 +1858,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1850,7 +1867,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1859,7 +1876,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1868,7 +1885,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1877,7 +1894,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1886,7 +1903,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1895,7 +1912,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1904,7 +1921,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -1913,7 +1930,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1922,7 +1939,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1931,7 +1948,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1940,7 +1957,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1949,7 +1966,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1958,7 +1975,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1967,7 +1984,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1976,7 +1993,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1985,7 +2002,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1994,7 +2011,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2003,7 +2020,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2012,7 +2029,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2021,7 +2038,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2030,7 +2047,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2039,7 +2056,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2048,7 +2065,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2057,7 +2074,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2066,7 +2083,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2075,7 +2092,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2084,7 +2101,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2093,7 +2110,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2102,7 +2119,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2111,7 +2128,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2120,7 +2137,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2129,7 +2146,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2138,7 +2155,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2147,7 +2164,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2156,7 +2173,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2165,7 +2182,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2174,7 +2191,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2183,7 +2200,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2192,7 +2209,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2201,7 +2218,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2210,7 +2227,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2219,7 +2236,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2228,7 +2245,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2237,7 +2254,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2246,7 +2263,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2255,7 +2272,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2264,7 +2281,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2273,7 +2290,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2282,7 +2299,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2291,7 +2308,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2300,7 +2317,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2309,7 +2326,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2318,7 +2335,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2327,7 +2344,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2336,7 +2353,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2345,7 +2362,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2354,7 +2371,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2363,7 +2380,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2372,7 +2389,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2381,7 +2398,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2390,7 +2407,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2399,7 +2416,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2408,7 +2425,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2417,7 +2434,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2426,7 +2443,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2435,7 +2452,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2444,7 +2461,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2453,7 +2470,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2462,7 +2479,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2471,7 +2488,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2480,7 +2497,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2489,7 +2506,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2498,7 +2515,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2507,7 +2524,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2516,7 +2533,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2525,7 +2542,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2534,7 +2551,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2543,7 +2560,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2552,7 +2569,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2561,7 +2578,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2570,7 +2587,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2579,7 +2596,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2588,7 +2605,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2597,7 +2614,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2606,7 +2623,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2615,7 +2632,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2624,7 +2641,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2633,7 +2650,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2642,7 +2659,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2651,7 +2668,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2660,7 +2677,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2669,7 +2686,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2678,7 +2695,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2687,7 +2704,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2696,7 +2713,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2705,7 +2722,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2714,7 +2731,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2723,7 +2740,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2732,7 +2749,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2741,7 +2758,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2750,7 +2767,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2759,7 +2776,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2768,7 +2785,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2777,7 +2794,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2786,7 +2803,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2795,7 +2812,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2804,7 +2821,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2813,7 +2830,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2822,7 +2839,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2831,7 +2848,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2840,7 +2857,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2849,7 +2866,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2858,7 +2875,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2867,7 +2884,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2876,7 +2893,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2885,7 +2902,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2894,7 +2911,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2903,7 +2920,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2912,7 +2929,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2921,7 +2938,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2930,7 +2947,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2939,7 +2956,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2948,7 +2965,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2957,7 +2974,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2966,7 +2983,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2975,7 +2992,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2984,7 +3001,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2993,7 +3010,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3002,7 +3019,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3011,7 +3028,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3020,7 +3037,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3029,7 +3046,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3038,7 +3055,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3047,7 +3064,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3056,7 +3073,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -3065,7 +3082,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -3074,7 +3091,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -3083,25 +3100,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6E33A2-264A-4D70-96E7-2DB17E3DB2B7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323BAB0B-71D7-42BA-BF13-DE5F9FC9021C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4656" yWindow="0" windowWidth="18288" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>GESAMT</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Code-Review vom kompletten Code</t>
+  </si>
+  <si>
+    <t>Darstellung der geladenen Daten als Projekt</t>
   </si>
 </sst>
 </file>
@@ -623,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,33 +1306,53 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="B32" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="12">
+        <v>43244</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.875</v>
+      </c>
       <c r="G32">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="B33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="12">
+        <v>43245</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0.625</v>
+      </c>
       <c r="G33">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H33">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1507,7 +1530,7 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>95.25</v>
+        <v>104.25</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323BAB0B-71D7-42BA-BF13-DE5F9FC9021C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD86CFB-B383-47AB-B73E-45685EA2AEA3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4656" yWindow="0" windowWidth="18288" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>GESAMT</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>Darstellung der geladenen Daten als Projekt</t>
+  </si>
+  <si>
+    <t>Darstellung der geladenen Daten als Aufgabenbereich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darstellung der geladenen Daten als Aufgabe </t>
+  </si>
+  <si>
+    <t>Darstellung der geladenen Daten als Aktivität</t>
   </si>
 </sst>
 </file>
@@ -626,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1356,48 +1365,78 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="B34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="12">
+        <v>43245</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="G34">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H34">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="B35" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="12">
+        <v>43246</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="G35">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H35">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="B36" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="12">
+        <v>43247</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="G36">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H36">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1530,7 +1569,7 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>104.25</v>
+        <v>119.75</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD86CFB-B383-47AB-B73E-45685EA2AEA3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8C3DA3-B5AE-44A5-8E37-12AC5731C69D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4656" yWindow="0" windowWidth="18288" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="18285" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>GESAMT</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Darstellung der geladenen Daten als Aktivität</t>
+  </si>
+  <si>
+    <t>Gruppenmeeting, Besprechung weiteres Vorgehen</t>
   </si>
 </sst>
 </file>
@@ -635,37 +638,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
@@ -688,7 +691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -713,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -738,7 +741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -763,7 +766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -789,7 +792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
@@ -814,7 +817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
@@ -839,7 +842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
@@ -864,7 +867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -889,7 +892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
@@ -914,7 +917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -939,7 +942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -964,7 +967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>2</v>
       </c>
@@ -989,7 +992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1039,7 +1042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>26</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>26</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>26</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>26</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>2</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
         <v>2</v>
       </c>
@@ -1289,7 +1292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>34</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
         <v>26</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>26</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>26</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
         <v>26</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
         <v>26</v>
       </c>
@@ -1439,22 +1442,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="12">
+        <v>43249</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="G37">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1469,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1484,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1499,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1514,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1529,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1544,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1559,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1569,16 +1582,16 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>119.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>120.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1587,7 +1600,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1596,7 +1609,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1605,7 +1618,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1614,7 +1627,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1623,7 +1636,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1632,7 +1645,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1641,7 +1654,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1650,7 +1663,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1659,7 +1672,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1668,7 +1681,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1677,7 +1690,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1686,7 +1699,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1695,7 +1708,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1704,7 +1717,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1713,7 +1726,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1722,7 +1735,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1731,7 +1744,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1740,7 +1753,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1749,7 +1762,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1758,7 +1771,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1767,7 +1780,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1776,7 +1789,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1785,7 +1798,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1794,7 +1807,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1803,7 +1816,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1812,7 +1825,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1821,7 +1834,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1830,7 +1843,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1839,7 +1852,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1848,7 +1861,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1857,7 +1870,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1866,7 +1879,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1875,7 +1888,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1884,7 +1897,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1893,7 +1906,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1902,7 +1915,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1911,7 +1924,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1920,7 +1933,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1929,7 +1942,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1938,7 +1951,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1947,7 +1960,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1956,7 +1969,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1965,7 +1978,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1974,7 +1987,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1983,7 +1996,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -1992,7 +2005,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2001,7 +2014,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -2010,7 +2023,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2019,7 +2032,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2028,7 +2041,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2037,7 +2050,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2046,7 +2059,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2055,7 +2068,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2064,7 +2077,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2073,7 +2086,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2082,7 +2095,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2091,7 +2104,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2100,7 +2113,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2109,7 +2122,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2118,7 +2131,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2127,7 +2140,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2136,7 +2149,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2145,7 +2158,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2154,7 +2167,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2163,7 +2176,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2172,7 +2185,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2181,7 +2194,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2190,7 +2203,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2199,7 +2212,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2208,7 +2221,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2217,7 +2230,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2226,7 +2239,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2235,7 +2248,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2244,7 +2257,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2253,7 +2266,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2262,7 +2275,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2271,7 +2284,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2280,7 +2293,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2289,7 +2302,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2298,7 +2311,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2307,7 +2320,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2316,7 +2329,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2325,7 +2338,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2334,7 +2347,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2343,7 +2356,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2352,7 +2365,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2361,7 +2374,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2370,7 +2383,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2379,7 +2392,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2388,7 +2401,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2397,7 +2410,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2406,7 +2419,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2415,7 +2428,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2424,7 +2437,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2433,7 +2446,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2442,7 +2455,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2451,7 +2464,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2460,7 +2473,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2469,7 +2482,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2478,7 +2491,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2487,7 +2500,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2496,7 +2509,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2505,7 +2518,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2514,7 +2527,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2523,7 +2536,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2532,7 +2545,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2541,7 +2554,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2550,7 +2563,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2559,7 +2572,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2568,7 +2581,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2577,7 +2590,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2586,7 +2599,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2595,7 +2608,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2604,7 +2617,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2613,7 +2626,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2622,7 +2635,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2631,7 +2644,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2640,7 +2653,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2649,7 +2662,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2658,7 +2671,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2667,7 +2680,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2676,7 +2689,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2685,7 +2698,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2694,7 +2707,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2703,7 +2716,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2712,7 +2725,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2721,7 +2734,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2730,7 +2743,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2739,7 +2752,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2748,7 +2761,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2757,7 +2770,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2766,7 +2779,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2775,7 +2788,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2784,7 +2797,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2793,7 +2806,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2802,7 +2815,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2811,7 +2824,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2820,7 +2833,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2829,7 +2842,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2838,7 +2851,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2847,7 +2860,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2856,7 +2869,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2865,7 +2878,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2874,7 +2887,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2883,7 +2896,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2892,7 +2905,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2901,7 +2914,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2910,7 +2923,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2919,7 +2932,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2928,7 +2941,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2937,7 +2950,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2946,7 +2959,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2955,7 +2968,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2964,7 +2977,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2973,7 +2986,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2982,7 +2995,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2991,7 +3004,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3000,7 +3013,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3009,7 +3022,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3018,7 +3031,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3027,7 +3040,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3036,7 +3049,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3045,7 +3058,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3054,7 +3067,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3063,7 +3076,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3072,7 +3085,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3081,7 +3094,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3090,7 +3103,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3099,7 +3112,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3108,7 +3121,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3117,7 +3130,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3126,7 +3139,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3135,7 +3148,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -3144,7 +3157,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -3153,7 +3166,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -3162,25 +3175,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8C3DA3-B5AE-44A5-8E37-12AC5731C69D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CBFF92-5381-437B-9796-074175D5FE42}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="18285" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4656" yWindow="0" windowWidth="18288" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>GESAMT</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Gruppenmeeting, Besprechung weiteres Vorgehen</t>
+  </si>
+  <si>
+    <t>Ausarbeitung Design</t>
+  </si>
+  <si>
+    <t>Änderung vom Design aller Komponenten / Hinzufügen vom Sound</t>
   </si>
 </sst>
 </file>
@@ -638,37 +644,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
@@ -691,7 +697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -716,7 +722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -741,7 +747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -766,7 +772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -792,7 +798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
@@ -817,7 +823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
@@ -842,7 +848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
@@ -867,7 +873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -892,7 +898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
@@ -917,7 +923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -942,7 +948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -967,7 +973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>2</v>
       </c>
@@ -992,7 +998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1042,7 +1048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
         <v>2</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
         <v>26</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>26</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
         <v>26</v>
       </c>
@@ -1217,7 +1223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
         <v>26</v>
       </c>
@@ -1242,7 +1248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>2</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
         <v>2</v>
       </c>
@@ -1292,7 +1298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
         <v>34</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
         <v>26</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
         <v>26</v>
       </c>
@@ -1367,7 +1373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
         <v>26</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
         <v>26</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
         <v>26</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
         <v>2</v>
       </c>
@@ -1467,22 +1473,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="12">
+        <v>43249</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G38">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H38">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1497,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1512,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1527,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1542,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1557,7 +1573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1572,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1582,16 +1598,16 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>120.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>126.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1600,7 +1616,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1609,7 +1625,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1618,7 +1634,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1627,7 +1643,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1636,7 +1652,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1645,7 +1661,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1654,7 +1670,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1663,7 +1679,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1672,7 +1688,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1681,7 +1697,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1690,7 +1706,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1699,7 +1715,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1708,7 +1724,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1717,7 +1733,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1726,7 +1742,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1735,7 +1751,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1744,7 +1760,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1753,7 +1769,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1762,7 +1778,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1771,7 +1787,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1780,7 +1796,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1789,7 +1805,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1798,7 +1814,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1807,7 +1823,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1816,7 +1832,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1825,7 +1841,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1834,7 +1850,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1843,7 +1859,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1852,7 +1868,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1861,7 +1877,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1870,7 +1886,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1879,7 +1895,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1888,7 +1904,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1897,7 +1913,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1906,7 +1922,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1915,7 +1931,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1924,7 +1940,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1933,7 +1949,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1942,7 +1958,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1951,7 +1967,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1960,7 +1976,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1969,7 +1985,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1978,7 +1994,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1987,7 +2003,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1996,7 +2012,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -2005,7 +2021,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2014,7 +2030,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -2023,7 +2039,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2032,7 +2048,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2041,7 +2057,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2050,7 +2066,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2059,7 +2075,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2068,7 +2084,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2077,7 +2093,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2086,7 +2102,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2095,7 +2111,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2104,7 +2120,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2113,7 +2129,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2122,7 +2138,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2131,7 +2147,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2140,7 +2156,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2149,7 +2165,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2158,7 +2174,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2167,7 +2183,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2176,7 +2192,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2185,7 +2201,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2194,7 +2210,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2203,7 +2219,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2212,7 +2228,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2221,7 +2237,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2230,7 +2246,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2239,7 +2255,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2248,7 +2264,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2257,7 +2273,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2266,7 +2282,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2275,7 +2291,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2284,7 +2300,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2293,7 +2309,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2302,7 +2318,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2311,7 +2327,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2320,7 +2336,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2329,7 +2345,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2338,7 +2354,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2347,7 +2363,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2356,7 +2372,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2365,7 +2381,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2374,7 +2390,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2383,7 +2399,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2392,7 +2408,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2401,7 +2417,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2410,7 +2426,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2419,7 +2435,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2428,7 +2444,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2437,7 +2453,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2446,7 +2462,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2455,7 +2471,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2464,7 +2480,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2473,7 +2489,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2482,7 +2498,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2491,7 +2507,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2500,7 +2516,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2509,7 +2525,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2518,7 +2534,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2527,7 +2543,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2536,7 +2552,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2545,7 +2561,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2554,7 +2570,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2563,7 +2579,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2572,7 +2588,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2581,7 +2597,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2590,7 +2606,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2599,7 +2615,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2608,7 +2624,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2617,7 +2633,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2626,7 +2642,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2635,7 +2651,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2644,7 +2660,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2653,7 +2669,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2662,7 +2678,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2671,7 +2687,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2680,7 +2696,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2689,7 +2705,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2698,7 +2714,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2707,7 +2723,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2716,7 +2732,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2725,7 +2741,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2734,7 +2750,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2743,7 +2759,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2752,7 +2768,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2761,7 +2777,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2770,7 +2786,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2779,7 +2795,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2788,7 +2804,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2797,7 +2813,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2806,7 +2822,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2815,7 +2831,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2824,7 +2840,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2833,7 +2849,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2842,7 +2858,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2851,7 +2867,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2860,7 +2876,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2869,7 +2885,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2878,7 +2894,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2887,7 +2903,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2896,7 +2912,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2905,7 +2921,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2914,7 +2930,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2923,7 +2939,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2932,7 +2948,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2941,7 +2957,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2950,7 +2966,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2959,7 +2975,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2968,7 +2984,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2977,7 +2993,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2986,7 +3002,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2995,7 +3011,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3004,7 +3020,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3013,7 +3029,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3022,7 +3038,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3031,7 +3047,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3040,7 +3056,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3049,7 +3065,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3058,7 +3074,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3067,7 +3083,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3076,7 +3092,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3085,7 +3101,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3094,7 +3110,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3103,7 +3119,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3112,7 +3128,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3121,7 +3137,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3130,7 +3146,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3139,7 +3155,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3148,7 +3164,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -3157,7 +3173,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -3166,7 +3182,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -3175,25 +3191,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CBFF92-5381-437B-9796-074175D5FE42}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94817E3-C81F-4A05-A9A2-24340D8BC16A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4656" yWindow="0" windowWidth="18288" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="18285" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>GESAMT</t>
   </si>
@@ -644,37 +644,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
@@ -697,7 +697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -722,7 +722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -747,7 +747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -772,7 +772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -798,7 +798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
@@ -823,7 +823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
@@ -848,7 +848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
@@ -873,7 +873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -898,7 +898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
@@ -923,7 +923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -948,7 +948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -973,7 +973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>2</v>
       </c>
@@ -998,7 +998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>26</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>26</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>26</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>26</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>2</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
         <v>2</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>34</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
         <v>26</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>26</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>26</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
         <v>26</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
         <v>26</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>2</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
         <v>41</v>
       </c>
@@ -1498,22 +1498,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="12">
+        <v>43256</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0.5</v>
+      </c>
       <c r="G39">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1528,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1543,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1558,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1573,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1588,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1598,16 +1608,16 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>126.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>128.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1616,7 +1626,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1625,7 +1635,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1634,7 +1644,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1643,7 +1653,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1652,7 +1662,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1661,7 +1671,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1670,7 +1680,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1679,7 +1689,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1688,7 +1698,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1697,7 +1707,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1706,7 +1716,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1715,7 +1725,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1724,7 +1734,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1733,7 +1743,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1742,7 +1752,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1751,7 +1761,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1760,7 +1770,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1769,7 +1779,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1778,7 +1788,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1787,7 +1797,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1796,7 +1806,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1805,7 +1815,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1814,7 +1824,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1823,7 +1833,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1832,7 +1842,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1841,7 +1851,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1850,7 +1860,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1859,7 +1869,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1868,7 +1878,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1877,7 +1887,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1886,7 +1896,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1895,7 +1905,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1904,7 +1914,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1913,7 +1923,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1922,7 +1932,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1931,7 +1941,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1940,7 +1950,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1949,7 +1959,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1958,7 +1968,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1967,7 +1977,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1976,7 +1986,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1985,7 +1995,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1994,7 +2004,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2003,7 +2013,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2012,7 +2022,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -2021,7 +2031,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2030,7 +2040,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -2039,7 +2049,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2048,7 +2058,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2057,7 +2067,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2066,7 +2076,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2075,7 +2085,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2084,7 +2094,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2093,7 +2103,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2102,7 +2112,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2111,7 +2121,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2120,7 +2130,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2129,7 +2139,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2138,7 +2148,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2147,7 +2157,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2156,7 +2166,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2165,7 +2175,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2174,7 +2184,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2183,7 +2193,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2192,7 +2202,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2201,7 +2211,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2210,7 +2220,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2219,7 +2229,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2228,7 +2238,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2237,7 +2247,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2246,7 +2256,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2255,7 +2265,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2264,7 +2274,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2273,7 +2283,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2282,7 +2292,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2291,7 +2301,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2300,7 +2310,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2309,7 +2319,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2318,7 +2328,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2327,7 +2337,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2336,7 +2346,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2345,7 +2355,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2354,7 +2364,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2363,7 +2373,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2372,7 +2382,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2381,7 +2391,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2390,7 +2400,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2399,7 +2409,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2408,7 +2418,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2417,7 +2427,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2426,7 +2436,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2435,7 +2445,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2444,7 +2454,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2453,7 +2463,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2462,7 +2472,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2471,7 +2481,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2480,7 +2490,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2489,7 +2499,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2498,7 +2508,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2507,7 +2517,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2516,7 +2526,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2525,7 +2535,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2534,7 +2544,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2543,7 +2553,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2552,7 +2562,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2561,7 +2571,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2570,7 +2580,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2579,7 +2589,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2588,7 +2598,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2597,7 +2607,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2606,7 +2616,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2615,7 +2625,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2624,7 +2634,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2633,7 +2643,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2642,7 +2652,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2651,7 +2661,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2660,7 +2670,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2669,7 +2679,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2678,7 +2688,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2687,7 +2697,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2696,7 +2706,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2705,7 +2715,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2714,7 +2724,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2723,7 +2733,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2732,7 +2742,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2741,7 +2751,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2750,7 +2760,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2759,7 +2769,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2768,7 +2778,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2777,7 +2787,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2786,7 +2796,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2795,7 +2805,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2804,7 +2814,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2813,7 +2823,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2822,7 +2832,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2831,7 +2841,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2840,7 +2850,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2849,7 +2859,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2858,7 +2868,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2867,7 +2877,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2876,7 +2886,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2885,7 +2895,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2894,7 +2904,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2903,7 +2913,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2912,7 +2922,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2921,7 +2931,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2930,7 +2940,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2939,7 +2949,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2948,7 +2958,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2957,7 +2967,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2966,7 +2976,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2975,7 +2985,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2984,7 +2994,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2993,7 +3003,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3002,7 +3012,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3011,7 +3021,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3020,7 +3030,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3029,7 +3039,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3038,7 +3048,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3047,7 +3057,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3056,7 +3066,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3065,7 +3075,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3074,7 +3084,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3083,7 +3093,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3092,7 +3102,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3101,7 +3111,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3110,7 +3120,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3119,7 +3129,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3128,7 +3138,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3137,7 +3147,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3146,7 +3156,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3155,7 +3165,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3164,7 +3174,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -3173,7 +3183,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -3182,7 +3192,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -3191,25 +3201,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94817E3-C81F-4A05-A9A2-24340D8BC16A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="18285" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7450" yWindow="0" windowWidth="18290" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>GESAMT</t>
   </si>
@@ -154,15 +153,18 @@
   </si>
   <si>
     <t>Änderung vom Design aller Komponenten / Hinzufügen vom Sound</t>
+  </si>
+  <si>
+    <t>Gruppenmeeting: Vorbereitung Präsentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -262,11 +264,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,7 +282,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -313,6 +315,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -357,21 +360,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle37" displayName="Tabelle37" ref="B6:H51" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H51"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -641,40 +644,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B7:F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
@@ -697,7 +700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -722,7 +725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -747,7 +750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -772,7 +775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -798,7 +801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
@@ -823,7 +826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
@@ -848,7 +851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
@@ -873,7 +876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -898,7 +901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
@@ -923,7 +926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -948,7 +951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -973,7 +976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>2</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="13" t="s">
         <v>26</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
         <v>26</v>
       </c>
@@ -1198,7 +1201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="13" t="s">
         <v>26</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
         <v>26</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="13" t="s">
         <v>2</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="13" t="s">
         <v>2</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="13" t="s">
         <v>34</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="13" t="s">
         <v>26</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" s="13" t="s">
         <v>26</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="13" t="s">
         <v>26</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" s="13" t="s">
         <v>26</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" s="13" t="s">
         <v>26</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" s="13" t="s">
         <v>2</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" s="13" t="s">
         <v>41</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" s="13" t="s">
         <v>2</v>
       </c>
@@ -1523,52 +1526,62 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="12">
+        <v>43258</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G40">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41">
+      <c r="G41" s="25">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="25">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42">
+      <c r="G42" s="25">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="25">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1583,122 +1596,176 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44">
+      <c r="G44" s="25">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="25">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="25">
+        <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45">
-        <f>SUM(G7:G44)</f>
-        <v>128.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="25">
+        <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46">
+        <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47">
+        <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-    </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="25">
+        <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="25">
+        <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="25">
+        <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="25">
+        <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="4"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-    </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50">
+        <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="3"/>
-      <c r="F51"/>
-      <c r="G51"/>
+      <c r="B51" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51">
+        <f>SUM(G7:G50)</f>
+        <v>130.75</v>
+      </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="3"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="2"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="B54" s="6"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="2"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
+      <c r="D55" s="2"/>
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="3"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="4"/>
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1707,16 +1774,16 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
-      <c r="B58" s="8"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1725,7 +1792,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1734,7 +1801,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1743,7 +1810,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1752,7 +1819,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1761,16 +1828,16 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1779,7 +1846,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1788,7 +1855,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1797,7 +1864,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1806,7 +1873,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1815,7 +1882,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1824,7 +1891,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1833,7 +1900,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1842,7 +1909,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1851,7 +1918,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1860,7 +1927,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1869,7 +1936,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1878,7 +1945,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1887,7 +1954,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1896,7 +1963,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1905,7 +1972,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1914,7 +1981,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1923,7 +1990,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1932,7 +1999,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1941,7 +2008,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1950,7 +2017,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1959,7 +2026,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1968,7 +2035,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1977,7 +2044,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1986,7 +2053,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1995,115 +2062,115 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
-      <c r="B90" s="7"/>
+      <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="F90"/>
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="3"/>
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="D92" s="3"/>
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
-      <c r="B93" s="6"/>
+      <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="3"/>
       <c r="F93"/>
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="D94" s="3"/>
       <c r="F94"/>
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="4"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="3"/>
       <c r="F95"/>
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
+      <c r="B96" s="7"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
       <c r="F96"/>
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="3"/>
+      <c r="D97" s="2"/>
       <c r="F97"/>
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="3"/>
+      <c r="D98" s="2"/>
       <c r="F98"/>
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
+      <c r="B99" s="6"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="3"/>
+      <c r="D99" s="2"/>
       <c r="F99"/>
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="3"/>
+      <c r="D100" s="2"/>
       <c r="F100"/>
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="3"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="4"/>
       <c r="F101"/>
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2112,7 +2179,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2121,7 +2188,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2130,7 +2197,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2139,7 +2206,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2148,7 +2215,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2157,7 +2224,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2166,7 +2233,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2175,7 +2242,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2184,7 +2251,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2193,7 +2260,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2202,7 +2269,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2211,7 +2278,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2220,7 +2287,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2229,7 +2296,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2238,7 +2305,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2247,7 +2314,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2256,7 +2323,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2265,7 +2332,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2274,7 +2341,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2283,7 +2350,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2292,7 +2359,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2301,7 +2368,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2310,7 +2377,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2319,7 +2386,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2328,7 +2395,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2337,7 +2404,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2346,7 +2413,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2355,7 +2422,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2364,7 +2431,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2373,7 +2440,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2382,7 +2449,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2391,7 +2458,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2400,115 +2467,115 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
-      <c r="B135" s="7"/>
+      <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="F135"/>
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
+      <c r="D136" s="3"/>
       <c r="F136"/>
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+      <c r="D137" s="3"/>
       <c r="F137"/>
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
-      <c r="B138" s="6"/>
+      <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
+      <c r="D138" s="3"/>
       <c r="F138"/>
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+      <c r="D139" s="3"/>
       <c r="F139"/>
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="4"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="3"/>
       <c r="F140"/>
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
+      <c r="B141" s="7"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="F141"/>
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
-      <c r="D142" s="3"/>
+      <c r="D142" s="2"/>
       <c r="F142"/>
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="3"/>
+      <c r="D143" s="2"/>
       <c r="F143"/>
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
+      <c r="B144" s="6"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="3"/>
+      <c r="D144" s="2"/>
       <c r="F144"/>
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="3"/>
+      <c r="D145" s="2"/>
       <c r="F145"/>
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="3"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="4"/>
       <c r="F146"/>
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2517,7 +2584,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2526,7 +2593,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2535,7 +2602,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2544,7 +2611,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2553,7 +2620,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2562,7 +2629,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2571,7 +2638,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2580,7 +2647,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2589,7 +2656,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2598,7 +2665,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2607,7 +2674,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2616,7 +2683,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2625,7 +2692,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2634,7 +2701,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2643,7 +2710,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2652,7 +2719,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2661,7 +2728,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2670,7 +2737,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2679,7 +2746,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2688,7 +2755,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2697,7 +2764,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2706,7 +2773,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2715,7 +2782,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2724,7 +2791,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2733,7 +2800,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2742,7 +2809,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2751,7 +2818,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2760,7 +2827,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2769,7 +2836,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2778,7 +2845,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2787,7 +2854,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2796,7 +2863,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2805,115 +2872,115 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
-      <c r="B180" s="7"/>
+      <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
       <c r="F180"/>
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
+      <c r="D181" s="3"/>
       <c r="F181"/>
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
+      <c r="D182" s="3"/>
       <c r="F182"/>
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
-      <c r="B183" s="6"/>
+      <c r="B183" s="2"/>
       <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
+      <c r="D183" s="3"/>
       <c r="F183"/>
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
+      <c r="D184" s="3"/>
       <c r="F184"/>
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="4"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="3"/>
       <c r="F185"/>
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
+      <c r="B186" s="7"/>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
       <c r="F186"/>
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
-      <c r="D187" s="3"/>
+      <c r="D187" s="2"/>
       <c r="F187"/>
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
-      <c r="D188" s="3"/>
+      <c r="D188" s="2"/>
       <c r="F188"/>
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
+      <c r="B189" s="6"/>
       <c r="C189" s="2"/>
-      <c r="D189" s="3"/>
+      <c r="D189" s="2"/>
       <c r="F189"/>
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
-      <c r="D190" s="3"/>
+      <c r="D190" s="2"/>
       <c r="F190"/>
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="3"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="4"/>
       <c r="F191"/>
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2922,7 +2989,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2931,7 +2998,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2940,7 +3007,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2949,7 +3016,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2958,7 +3025,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2967,7 +3034,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2976,7 +3043,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2985,7 +3052,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2994,7 +3061,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3003,7 +3070,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3012,7 +3079,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3021,7 +3088,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3030,7 +3097,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3039,7 +3106,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3048,7 +3115,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3057,7 +3124,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3066,7 +3133,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3075,7 +3142,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3084,7 +3151,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3093,7 +3160,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3102,7 +3169,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3111,7 +3178,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3120,7 +3187,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3129,7 +3196,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3138,7 +3205,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3147,7 +3214,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3156,7 +3223,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3165,7 +3232,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3174,52 +3241,61 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
-      <c r="B221"/>
-      <c r="C221"/>
-      <c r="D221"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="3"/>
       <c r="F221"/>
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
-      <c r="B222"/>
-      <c r="C222"/>
-      <c r="D222"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="3"/>
       <c r="F222"/>
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
-      <c r="B223"/>
-      <c r="C223"/>
-      <c r="D223"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="3"/>
       <c r="F223"/>
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="3"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="3"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="3"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>GESAMT</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Ausarbeitung der Grundfunktionen: Sollzeit/Istzeiterfassung</t>
   </si>
   <si>
-    <t>Ausarbeitung Grundfunktionen</t>
-  </si>
-  <si>
     <t>Ausarbeitung der Grundfunktionen: Erstellen von Aufgabenbereichen, Auf.Beschreibung hinzufügen</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Reviewmethoden recherchieren, Coderichtlinien</t>
   </si>
   <si>
-    <t>Ausarbeitung Funktionen</t>
-  </si>
-  <si>
     <t>Ausarbeitung der Funktion: Neue Personen erstellen, Zuweisung von Pers. zu einem Projekt</t>
   </si>
   <si>
@@ -149,13 +143,13 @@
     <t>Gruppenmeeting, Besprechung weiteres Vorgehen</t>
   </si>
   <si>
-    <t>Ausarbeitung Design</t>
-  </si>
-  <si>
     <t>Änderung vom Design aller Komponenten / Hinzufügen vom Sound</t>
   </si>
   <si>
     <t>Gruppenmeeting: Vorbereitung Präsentation</t>
+  </si>
+  <si>
+    <t>Programmierung</t>
   </si>
 </sst>
 </file>
@@ -318,8 +312,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -647,11 +641,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B50" sqref="B7:F50"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.81640625" customWidth="1"/>
     <col min="2" max="2" width="27.453125" customWidth="1"/>
@@ -663,7 +657,7 @@
   <sheetData>
     <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="23"/>
     </row>
@@ -673,31 +667,31 @@
     </row>
     <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -705,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="12">
         <v>43171</v>
@@ -730,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="12">
         <v>43178</v>
@@ -755,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="12">
         <v>43179</v>
@@ -778,10 +772,10 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="12">
         <v>43196</v>
@@ -803,10 +797,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="12">
         <v>43199</v>
@@ -828,10 +822,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="12">
         <v>43200</v>
@@ -853,10 +847,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>6</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>7</v>
       </c>
       <c r="D13" s="12">
         <v>43201</v>
@@ -903,7 +897,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>5</v>
@@ -1006,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="12">
         <v>43209</v>
@@ -1031,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="12">
         <v>43223</v>
@@ -1056,7 +1050,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="12">
         <v>43223</v>
@@ -1081,7 +1075,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="12">
         <v>43225</v>
@@ -1103,10 +1097,10 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="12">
         <v>43236</v>
@@ -1153,10 +1147,10 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="D25" s="12">
         <v>43239</v>
@@ -1178,10 +1172,10 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="12">
         <v>43240</v>
@@ -1203,10 +1197,10 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="13" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" s="12">
         <v>43241</v>
@@ -1228,10 +1222,10 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28" s="12">
         <v>43242</v>
@@ -1256,7 +1250,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D29" s="12">
         <v>43243</v>
@@ -1281,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" s="12">
         <v>43244</v>
@@ -1303,10 +1297,10 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="12">
         <v>43243</v>
@@ -1328,10 +1322,10 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="13" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" s="12">
         <v>43244</v>
@@ -1353,10 +1347,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" s="13" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="12">
         <v>43245</v>
@@ -1378,10 +1372,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="13" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" s="12">
         <v>43245</v>
@@ -1403,10 +1397,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" s="13" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35" s="12">
         <v>43246</v>
@@ -1428,10 +1422,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" s="13" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D36" s="12">
         <v>43247</v>
@@ -1456,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37" s="12">
         <v>43249</v>
@@ -1481,7 +1475,7 @@
         <v>41</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D38" s="12">
         <v>43249</v>
@@ -1531,7 +1525,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D40" s="12">
         <v>43258</v>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>GESAMT</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Programmierung</t>
+  </si>
+  <si>
+    <t>Ausarbeitung der Funktionen: Personen, Projekten entfernen</t>
   </si>
 </sst>
 </file>
@@ -642,7 +645,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1546,18 +1549,28 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="B41" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="12">
+        <v>43280</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0.625</v>
+      </c>
       <c r="G41" s="25">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H41" s="25">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -1710,7 +1723,7 @@
       <c r="F51" s="9"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>130.75</v>
+        <v>135.75</v>
       </c>
       <c r="H51"/>
     </row>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E5BD26A1-2AC5-4FE7-AEFA-50D83AB20D8E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7450" yWindow="0" windowWidth="18290" windowHeight="7910"/>
+    <workbookView xWindow="7452" yWindow="0" windowWidth="18288" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>GESAMT</t>
   </si>
@@ -153,15 +154,18 @@
   </si>
   <si>
     <t>Ausarbeitung der Funktionen: Personen, Projekten entfernen</t>
+  </si>
+  <si>
+    <t>Ausarbeitung der Funktionen: Projekten entfernen, Aufgabenbereiche entfernen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -261,11 +265,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,7 +283,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -357,21 +361,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle37" displayName="Tabelle37" ref="B6:H51" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:H51" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -641,40 +645,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>18</v>
       </c>
@@ -697,7 +701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -722,7 +726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -747,7 +751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -772,7 +776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>41</v>
@@ -798,7 +802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
         <v>41</v>
       </c>
@@ -823,7 +827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>41</v>
       </c>
@@ -848,7 +852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>41</v>
       </c>
@@ -873,7 +877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -898,7 +902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>41</v>
       </c>
@@ -923,7 +927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -948,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -973,7 +977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>2</v>
       </c>
@@ -998,7 +1002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +1027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1048,7 +1052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1073,7 +1077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>41</v>
       </c>
@@ -1123,7 +1127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
         <v>41</v>
       </c>
@@ -1173,7 +1177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>41</v>
       </c>
@@ -1198,7 +1202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
         <v>41</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
         <v>41</v>
       </c>
@@ -1248,7 +1252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>2</v>
       </c>
@@ -1273,7 +1277,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
         <v>2</v>
       </c>
@@ -1298,7 +1302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
         <v>32</v>
       </c>
@@ -1323,7 +1327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
         <v>41</v>
       </c>
@@ -1348,7 +1352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
         <v>41</v>
       </c>
@@ -1373,7 +1377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
         <v>41</v>
       </c>
@@ -1398,7 +1402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
         <v>41</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
         <v>41</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
         <v>2</v>
       </c>
@@ -1473,7 +1477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
         <v>41</v>
       </c>
@@ -1498,7 +1502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
         <v>2</v>
       </c>
@@ -1523,7 +1527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>2</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
         <v>41</v>
       </c>
@@ -1573,22 +1577,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="12">
+        <v>43281</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G42" s="25">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H42" s="25">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1603,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1618,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="12"/>
@@ -1633,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="12"/>
@@ -1648,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -1664,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -1680,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -1696,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -1712,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="10" t="s">
         <v>0</v>
@@ -1723,11 +1737,11 @@
       <c r="F51" s="9"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>135.75</v>
+        <v>141.75</v>
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -1736,7 +1750,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1745,7 +1759,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="6"/>
       <c r="C54" s="2"/>
@@ -1754,7 +1768,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1763,7 +1777,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1772,7 +1786,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1781,7 +1795,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1790,7 +1804,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1799,7 +1813,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1808,7 +1822,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1817,7 +1831,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1826,7 +1840,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1835,7 +1849,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="8"/>
       <c r="C64" s="2"/>
@@ -1844,7 +1858,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1853,7 +1867,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1862,7 +1876,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1871,7 +1885,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1880,7 +1894,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1889,7 +1903,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1898,7 +1912,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1907,7 +1921,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1916,7 +1930,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1925,7 +1939,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1934,7 +1948,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1943,7 +1957,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1952,7 +1966,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1961,7 +1975,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1970,7 +1984,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1979,7 +1993,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1988,7 +2002,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1997,7 +2011,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2006,7 +2020,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2015,7 +2029,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2024,7 +2038,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2033,7 +2047,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2042,7 +2056,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2051,7 +2065,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2060,7 +2074,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2069,7 +2083,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2078,7 +2092,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2087,7 +2101,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2096,7 +2110,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2105,7 +2119,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2114,7 +2128,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2123,7 +2137,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="7"/>
       <c r="C96" s="2"/>
@@ -2132,7 +2146,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2141,7 +2155,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2150,7 +2164,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="6"/>
       <c r="C99" s="2"/>
@@ -2159,7 +2173,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2168,7 +2182,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -2177,7 +2191,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2186,7 +2200,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2195,7 +2209,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2204,7 +2218,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2213,7 +2227,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2222,7 +2236,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2231,7 +2245,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2240,7 +2254,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2249,7 +2263,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2258,7 +2272,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2267,7 +2281,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2276,7 +2290,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2285,7 +2299,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2294,7 +2308,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2303,7 +2317,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2312,7 +2326,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2321,7 +2335,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2330,7 +2344,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2339,7 +2353,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2348,7 +2362,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2357,7 +2371,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2366,7 +2380,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2375,7 +2389,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2384,7 +2398,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2393,7 +2407,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2402,7 +2416,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2411,7 +2425,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2420,7 +2434,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2429,7 +2443,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2438,7 +2452,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2447,7 +2461,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2456,7 +2470,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2465,7 +2479,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2474,7 +2488,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2483,7 +2497,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2492,7 +2506,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2501,7 +2515,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2510,7 +2524,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2519,7 +2533,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2528,7 +2542,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="7"/>
       <c r="C141" s="2"/>
@@ -2537,7 +2551,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2546,7 +2560,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2555,7 +2569,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="6"/>
       <c r="C144" s="2"/>
@@ -2564,7 +2578,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2573,7 +2587,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -2582,7 +2596,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2591,7 +2605,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2600,7 +2614,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2609,7 +2623,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2618,7 +2632,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2627,7 +2641,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2636,7 +2650,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2645,7 +2659,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2654,7 +2668,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2663,7 +2677,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2672,7 +2686,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2681,7 +2695,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2690,7 +2704,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2699,7 +2713,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2708,7 +2722,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2717,7 +2731,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2726,7 +2740,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2735,7 +2749,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2744,7 +2758,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2753,7 +2767,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2762,7 +2776,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2771,7 +2785,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2780,7 +2794,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2789,7 +2803,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2798,7 +2812,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2807,7 +2821,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2816,7 +2830,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2825,7 +2839,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2834,7 +2848,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2843,7 +2857,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2852,7 +2866,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2861,7 +2875,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2870,7 +2884,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2879,7 +2893,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2888,7 +2902,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2897,7 +2911,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2906,7 +2920,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -2915,7 +2929,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2924,7 +2938,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -2933,7 +2947,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="7"/>
       <c r="C186" s="2"/>
@@ -2942,7 +2956,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2951,7 +2965,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2960,7 +2974,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="6"/>
       <c r="C189" s="2"/>
@@ -2969,7 +2983,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2978,7 +2992,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -2987,7 +3001,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2996,7 +3010,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3005,7 +3019,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -3014,7 +3028,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -3023,7 +3037,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -3032,7 +3046,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -3041,7 +3055,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -3050,7 +3064,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3059,7 +3073,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3068,7 +3082,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3077,7 +3091,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3086,7 +3100,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3095,7 +3109,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3104,7 +3118,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3113,7 +3127,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3122,7 +3136,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3131,7 +3145,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3140,7 +3154,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3149,7 +3163,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3158,7 +3172,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3167,7 +3181,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3176,7 +3190,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3185,7 +3199,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3194,7 +3208,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3203,7 +3217,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3212,7 +3226,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3221,7 +3235,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3230,7 +3244,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3239,7 +3253,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3248,7 +3262,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -3257,7 +3271,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -3266,7 +3280,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -3275,34 +3289,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E5BD26A1-2AC5-4FE7-AEFA-50D83AB20D8E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A90E0572-A1BD-4EF8-A4C8-E5241DF91854}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7452" yWindow="0" windowWidth="18288" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>GESAMT</t>
   </si>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1603,18 +1603,28 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="B43" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="12">
+        <v>43283</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0.625</v>
+      </c>
       <c r="G43">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1737,7 +1747,7 @@
       <c r="F51" s="9"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>141.75</v>
+        <v>143.75</v>
       </c>
       <c r="H51"/>
     </row>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A90E0572-A1BD-4EF8-A4C8-E5241DF91854}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7452" yWindow="0" windowWidth="18288" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7450" yWindow="0" windowWidth="18290" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
   <si>
     <t>GESAMT</t>
   </si>
@@ -157,15 +156,18 @@
   </si>
   <si>
     <t>Ausarbeitung der Funktionen: Projekten entfernen, Aufgabenbereiche entfernen</t>
+  </si>
+  <si>
+    <t>Ausarbeitung der Funktionen: Aufgabenbereiche entfernen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -265,11 +267,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,7 +285,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -361,21 +363,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:H51" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle37" displayName="Tabelle37" ref="B6:H51" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H51"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -645,40 +647,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>18</v>
       </c>
@@ -701,7 +703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -726,7 +728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -751,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -776,7 +778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>41</v>
@@ -802,7 +804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>41</v>
       </c>
@@ -827,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>41</v>
       </c>
@@ -852,7 +854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>41</v>
       </c>
@@ -877,7 +879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -902,7 +904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>41</v>
       </c>
@@ -927,7 +929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -952,7 +954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -977,7 +979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>2</v>
       </c>
@@ -1002,7 +1004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +1029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1052,7 +1054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1102,7 +1104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
         <v>41</v>
       </c>
@@ -1127,7 +1129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="13" t="s">
         <v>41</v>
       </c>
@@ -1177,7 +1179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
         <v>41</v>
       </c>
@@ -1202,7 +1204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="13" t="s">
         <v>41</v>
       </c>
@@ -1227,7 +1229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
         <v>41</v>
       </c>
@@ -1252,7 +1254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="13" t="s">
         <v>2</v>
       </c>
@@ -1277,7 +1279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="13" t="s">
         <v>2</v>
       </c>
@@ -1302,7 +1304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="13" t="s">
         <v>32</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="13" t="s">
         <v>41</v>
       </c>
@@ -1352,7 +1354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" s="13" t="s">
         <v>41</v>
       </c>
@@ -1377,7 +1379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="13" t="s">
         <v>41</v>
       </c>
@@ -1402,7 +1404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" s="13" t="s">
         <v>41</v>
       </c>
@@ -1427,7 +1429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" s="13" t="s">
         <v>41</v>
       </c>
@@ -1452,7 +1454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" s="13" t="s">
         <v>2</v>
       </c>
@@ -1477,7 +1479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" s="13" t="s">
         <v>41</v>
       </c>
@@ -1502,7 +1504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" s="13" t="s">
         <v>2</v>
       </c>
@@ -1527,7 +1529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" s="13" t="s">
         <v>2</v>
       </c>
@@ -1552,7 +1554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" s="13" t="s">
         <v>41</v>
       </c>
@@ -1577,7 +1579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" s="13" t="s">
         <v>41</v>
       </c>
@@ -1602,7 +1604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" s="13" t="s">
         <v>2</v>
       </c>
@@ -1627,22 +1629,32 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="12">
+        <v>43284</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G44" s="25">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H44" s="25">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="12"/>
@@ -1657,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="12"/>
@@ -1672,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -1688,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -1704,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -1720,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -1736,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="10" t="s">
         <v>0</v>
@@ -1747,11 +1759,11 @@
       <c r="F51" s="9"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>143.75</v>
+        <v>149.75</v>
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -1760,7 +1772,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1769,7 +1781,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="6"/>
       <c r="C54" s="2"/>
@@ -1778,7 +1790,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1787,7 +1799,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1796,7 +1808,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1805,7 +1817,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1814,7 +1826,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1823,7 +1835,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1832,7 +1844,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1841,7 +1853,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1850,7 +1862,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1859,7 +1871,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="8"/>
       <c r="C64" s="2"/>
@@ -1868,7 +1880,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1877,7 +1889,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1886,7 +1898,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1895,7 +1907,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1904,7 +1916,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1913,7 +1925,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1922,7 +1934,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1931,7 +1943,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1940,7 +1952,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1949,7 +1961,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1958,7 +1970,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1967,7 +1979,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1976,7 +1988,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1985,7 +1997,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1994,7 +2006,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2003,7 +2015,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2012,7 +2024,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2021,7 +2033,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2030,7 +2042,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2039,7 +2051,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2048,7 +2060,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2057,7 +2069,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2066,7 +2078,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2075,7 +2087,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2084,7 +2096,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2093,7 +2105,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2102,7 +2114,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2111,7 +2123,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2120,7 +2132,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2129,7 +2141,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2138,7 +2150,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2147,7 +2159,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="7"/>
       <c r="C96" s="2"/>
@@ -2156,7 +2168,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2165,7 +2177,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2174,7 +2186,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
       <c r="B99" s="6"/>
       <c r="C99" s="2"/>
@@ -2183,7 +2195,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2192,7 +2204,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -2201,7 +2213,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2210,7 +2222,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2219,7 +2231,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2228,7 +2240,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2237,7 +2249,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2246,7 +2258,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2255,7 +2267,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2264,7 +2276,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2273,7 +2285,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2282,7 +2294,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2291,7 +2303,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2300,7 +2312,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2309,7 +2321,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2318,7 +2330,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2327,7 +2339,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2336,7 +2348,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2345,7 +2357,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2354,7 +2366,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2363,7 +2375,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2372,7 +2384,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2381,7 +2393,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2390,7 +2402,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2399,7 +2411,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2408,7 +2420,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2417,7 +2429,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2426,7 +2438,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2435,7 +2447,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2444,7 +2456,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2453,7 +2465,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2462,7 +2474,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2471,7 +2483,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2480,7 +2492,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2489,7 +2501,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2498,7 +2510,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2507,7 +2519,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2516,7 +2528,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2525,7 +2537,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2534,7 +2546,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2543,7 +2555,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2552,7 +2564,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="7"/>
       <c r="C141" s="2"/>
@@ -2561,7 +2573,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2570,7 +2582,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2579,7 +2591,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A144" s="2"/>
       <c r="B144" s="6"/>
       <c r="C144" s="2"/>
@@ -2588,7 +2600,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2597,7 +2609,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -2606,7 +2618,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2615,7 +2627,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2624,7 +2636,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2633,7 +2645,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2642,7 +2654,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2651,7 +2663,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2660,7 +2672,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2669,7 +2681,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2678,7 +2690,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2687,7 +2699,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2696,7 +2708,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2705,7 +2717,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2714,7 +2726,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2723,7 +2735,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2732,7 +2744,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2741,7 +2753,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2750,7 +2762,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2759,7 +2771,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2768,7 +2780,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2777,7 +2789,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2786,7 +2798,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2795,7 +2807,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2804,7 +2816,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2813,7 +2825,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2822,7 +2834,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2831,7 +2843,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2840,7 +2852,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2849,7 +2861,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2858,7 +2870,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2867,7 +2879,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2876,7 +2888,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2885,7 +2897,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2894,7 +2906,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2903,7 +2915,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2912,7 +2924,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2921,7 +2933,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2930,7 +2942,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -2939,7 +2951,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2948,7 +2960,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -2957,7 +2969,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="7"/>
       <c r="C186" s="2"/>
@@ -2966,7 +2978,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2975,7 +2987,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2984,7 +2996,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A189" s="2"/>
       <c r="B189" s="6"/>
       <c r="C189" s="2"/>
@@ -2993,7 +3005,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -3002,7 +3014,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -3011,7 +3023,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3020,7 +3032,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3029,7 +3041,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -3038,7 +3050,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -3047,7 +3059,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -3056,7 +3068,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -3065,7 +3077,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -3074,7 +3086,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3083,7 +3095,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3092,7 +3104,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3101,7 +3113,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3110,7 +3122,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3119,7 +3131,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3128,7 +3140,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3137,7 +3149,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3146,7 +3158,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3155,7 +3167,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3164,7 +3176,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3173,7 +3185,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3182,7 +3194,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3191,7 +3203,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3200,7 +3212,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3209,7 +3221,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3218,7 +3230,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3227,7 +3239,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3236,7 +3248,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3245,7 +3257,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3254,7 +3266,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3263,7 +3275,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3272,7 +3284,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -3281,7 +3293,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -3290,7 +3302,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -3299,34 +3311,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Tomic.xlsx
+++ b/Dokumente/Zeiterfassung/Tomic.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{488562FA-2B34-490A-8FDC-13D6538034A5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7450" yWindow="0" windowWidth="18290" windowHeight="7910"/>
+    <workbookView xWindow="7452" yWindow="0" windowWidth="18288" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tomic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>GESAMT</t>
   </si>
@@ -159,15 +160,21 @@
   </si>
   <si>
     <t>Ausarbeitung der Funktionen: Aufgabenbereiche entfernen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisation </t>
+  </si>
+  <si>
+    <t>Dokumentation bearbeitung (CodeReview, Zeitaufwandschätzung)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -267,11 +274,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,7 +292,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -363,21 +370,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle37" displayName="Tabelle37" ref="B6:H51" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:H51" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -647,40 +654,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>18</v>
       </c>
@@ -703,7 +710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -728,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -753,7 +760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -778,7 +785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
         <v>41</v>
@@ -804,7 +811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
         <v>41</v>
       </c>
@@ -829,7 +836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>41</v>
       </c>
@@ -854,7 +861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>41</v>
       </c>
@@ -879,7 +886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -904,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>41</v>
       </c>
@@ -929,7 +936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -954,7 +961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -979,7 +986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>2</v>
       </c>
@@ -1004,7 +1011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -1029,7 +1036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1054,7 +1061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1079,7 +1086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1104,7 +1111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>41</v>
       </c>
@@ -1129,7 +1136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
         <v>2</v>
       </c>
@@ -1154,7 +1161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
         <v>41</v>
       </c>
@@ -1179,7 +1186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>41</v>
       </c>
@@ -1204,7 +1211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
         <v>41</v>
       </c>
@@ -1229,7 +1236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
         <v>41</v>
       </c>
@@ -1254,7 +1261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>2</v>
       </c>
@@ -1279,7 +1286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
         <v>2</v>
       </c>
@@ -1304,7 +1311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
         <v>32</v>
       </c>
@@ -1329,7 +1336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
         <v>41</v>
       </c>
@@ -1354,7 +1361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
         <v>41</v>
       </c>
@@ -1379,7 +1386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
         <v>41</v>
       </c>
@@ -1404,7 +1411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
         <v>41</v>
       </c>
@@ -1429,7 +1436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
         <v>41</v>
       </c>
@@ -1454,7 +1461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
         <v>2</v>
       </c>
@@ -1479,7 +1486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
         <v>41</v>
       </c>
@@ -1504,7 +1511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
         <v>2</v>
       </c>
@@ -1529,7 +1536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>2</v>
       </c>
@@ -1554,7 +1561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
         <v>41</v>
       </c>
@@ -1579,7 +1586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
         <v>41</v>
       </c>
@@ -1604,7 +1611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
         <v>2</v>
       </c>
@@ -1629,7 +1636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
         <v>41</v>
       </c>
@@ -1654,22 +1661,32 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="12">
+        <v>43285</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G45" s="25">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H45" s="25">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="12"/>
@@ -1684,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -1700,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -1716,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -1732,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -1748,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="10" t="s">
         <v>0</v>
@@ -1759,11 +1776,11 @@
       <c r="F51" s="9"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>149.75</v>
+        <v>153.75</v>
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -1772,7 +1789,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1781,7 +1798,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="6"/>
       <c r="C54" s="2"/>
@@ -1790,7 +1807,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1799,7 +1816,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1808,7 +1825,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1817,7 +1834,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1826,7 +1843,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1835,7 +1852,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1844,7 +1861,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1853,7 +1870,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1862,7 +1879,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1871,7 +1888,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="8"/>
       <c r="C64" s="2"/>
@@ -1880,7 +1897,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1889,7 +1906,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1898,7 +1915,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1907,7 +1924,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1916,7 +1933,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1925,7 +1942,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1934,7 +1951,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1943,7 +1960,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1952,7 +1969,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1961,7 +1978,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1970,7 +1987,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1979,7 +1996,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1988,7 +2005,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1997,7 +2014,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2006,7 +2023,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2015,7 +2032,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2024,7 +2041,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2033,7 +2050,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2042,7 +2059,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2051,7 +2068,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2060,7 +2077,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2069,7 +2086,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2078,7 +2095,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2087,7 +2104,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2096,7 +2113,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2105,7 +2122,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2114,7 +2131,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2123,7 +2140,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2132,7 +2149,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2141,7 +2158,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2150,7 +2167,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2159,7 +2176,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="7"/>
       <c r="C96" s="2"/>
@@ -2168,7 +2185,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2177,7 +2194,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2186,7 +2203,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="6"/>
       <c r="C99" s="2"/>
@@ -2195,7 +2212,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2204,7 +2221,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -2213,7 +2230,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2222,7 +2239,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2231,7 +2248,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2240,7 +2257,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2249,7 +2266,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2258,7 +2275,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2267,7 +2284,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2276,7 +2293,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2285,7 +2302,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2294,7 +2311,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2303,7 +2320,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2312,7 +2329,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2321,7 +2338,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2330,7 +2347,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2339,7 +2356,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2348,7 +2365,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2357,7 +2374,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2366,7 +2383,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2375,7 +2392,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2384,7 +2401,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2393,7 +2410,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2402,7 +2419,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2411,7 +2428,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2420,7 +2437,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2429,7 +2446,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2438,7 +2455,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2447,7 +2464,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2456,7 +2473,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2465,7 +2482,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2474,7 +2491,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2483,7 +2500,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2492,7 +2509,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2501,7 +2518,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2510,7 +2527,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2519,7 +2536,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2528,7 +2545,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2537,7 +2554,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2546,7 +2563,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2555,7 +2572,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2564,7 +2581,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="7"/>
       <c r="C141" s="2"/>
@@ -2573,7 +2590,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2582,7 +2599,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2591,7 +2608,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="6"/>
       <c r="C144" s="2"/>
@@ -2600,7 +2617,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2609,7 +2626,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -2618,7 +2635,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2627,7 +2644,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2636,7 +2653,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2645,7 +2662,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2654,7 +2671,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2663,7 +2680,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2672,7 +2689,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2681,7 +2698,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2690,7 +2707,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2699,7 +2716,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2708,7 +2725,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2717,7 +2734,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2726,7 +2743,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2735,7 +2752,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2744,7 +2761,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2753,7 +2770,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2762,7 +2779,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2771,7 +2788,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2780,7 +2797,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2789,7 +2806,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2798,7 +2815,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2807,7 +2824,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2816,7 +2833,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2825,7 +2842,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2834,7 +2851,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2843,7 +2860,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2852,7 +2869,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2861,7 +2878,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2870,7 +2887,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2879,7 +2896,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2888,7 +2905,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2897,7 +2914,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2906,7 +2923,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2915,7 +2932,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2924,7 +2941,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2933,7 +2950,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2942,7 +2959,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -2951,7 +2968,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2960,7 +2977,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -2969,7 +2986,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="7"/>
       <c r="C186" s="2"/>
@@ -2978,7 +2995,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2987,7 +3004,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2996,7 +3013,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="6"/>
       <c r="C189" s="2"/>
@@ -3005,7 +3022,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -3014,7 +3031,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -3023,7 +3040,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3032,7 +3049,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3041,7 +3058,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -3050,7 +3067,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -3059,7 +3076,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -3068,7 +3085,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -3077,7 +3094,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -3086,7 +3103,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3095,7 +3112,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3104,7 +3121,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3113,7 +3130,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3122,7 +3139,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3131,7 +3148,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3140,7 +3157,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3149,7 +3166,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3158,7 +3175,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3167,7 +3184,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3176,7 +3193,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3185,7 +3202,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3194,7 +3211,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3203,7 +3220,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3212,7 +3229,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3221,7 +3238,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3230,7 +3247,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3239,7 +3256,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3248,7 +3265,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3257,7 +3274,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3266,7 +3283,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3275,7 +3292,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3284,7 +3301,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -3293,7 +3310,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -3302,7 +3319,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -3311,34 +3328,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
     </row>
   </sheetData>
